--- a/data/trans_orig/P1203-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1203-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>409521</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>384177</v>
+        <v>383464</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>434754</v>
+        <v>434912</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5900781131086583</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5535595800444588</v>
+        <v>0.5525328924760127</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6264356419222672</v>
+        <v>0.6266638859435759</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>331</v>
@@ -765,19 +765,19 @@
         <v>322561</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>297943</v>
+        <v>298479</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>349714</v>
+        <v>346688</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4685991387447415</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4328361161589133</v>
+        <v>0.4336147942593568</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5080461769602246</v>
+        <v>0.5036495248657071</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>728</v>
@@ -786,19 +786,19 @@
         <v>732082</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>698138</v>
+        <v>693312</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>771853</v>
+        <v>767650</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5295873681784982</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5050321814432774</v>
+        <v>0.5015413030881167</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5583577769877005</v>
+        <v>0.5553170822900713</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>169323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>147608</v>
+        <v>146551</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>193185</v>
+        <v>192019</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2439774933212913</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2126879885384213</v>
+        <v>0.2111647413454602</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.27835984943581</v>
+        <v>0.2766793387149815</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>194</v>
@@ -836,19 +836,19 @@
         <v>195370</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>172516</v>
+        <v>173711</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>219320</v>
+        <v>219565</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.283823096863606</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2506216125372874</v>
+        <v>0.2523578380665166</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3186169917165534</v>
+        <v>0.3189728635188818</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>362</v>
@@ -857,19 +857,19 @@
         <v>364693</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>330687</v>
+        <v>330743</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>398630</v>
+        <v>398880</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2638187066101514</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2392187704579115</v>
+        <v>0.2392589963401051</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2883687011514463</v>
+        <v>0.2885492566565234</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>87611</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>71822</v>
+        <v>70115</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>104137</v>
+        <v>106062</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1262383462645537</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.103487861496889</v>
+        <v>0.1010278663188206</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1500510849450711</v>
+        <v>0.1528244906908245</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>131</v>
@@ -907,19 +907,19 @@
         <v>131167</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>111203</v>
+        <v>111800</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>151998</v>
+        <v>152358</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1905523532507305</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1615496999157727</v>
+        <v>0.1624164838515995</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.220814204352116</v>
+        <v>0.2213383303104227</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>220</v>
@@ -928,19 +928,19 @@
         <v>218778</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>191063</v>
+        <v>190267</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>245335</v>
+        <v>246473</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1582636593889698</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1382146573612616</v>
+        <v>0.1376388513327667</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1774751897427399</v>
+        <v>0.1782982075768297</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>17885</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11193</v>
+        <v>11472</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27482</v>
+        <v>27983</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02576974810340765</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01612839101636551</v>
+        <v>0.01652936637872583</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03959926554742468</v>
+        <v>0.04032099615756129</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -978,19 +978,19 @@
         <v>33920</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24027</v>
+        <v>24571</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45908</v>
+        <v>45540</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04927649851307486</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0349050377580174</v>
+        <v>0.03569587802657822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06669238571177288</v>
+        <v>0.06615792849442217</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -999,19 +999,19 @@
         <v>51804</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39113</v>
+        <v>39936</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66820</v>
+        <v>67298</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03747499051769065</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02829429530989748</v>
+        <v>0.02888930614600882</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04833755000556948</v>
+        <v>0.04868350239135526</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>7719</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3776</v>
+        <v>3773</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14342</v>
+        <v>14424</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01112215428515451</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005441375852273249</v>
+        <v>0.005435975911167281</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02066536888952195</v>
+        <v>0.02078349918005881</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6610</v>
+        <v>6406</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.002743228877177765</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.009602381991959412</v>
+        <v>0.009306545908044207</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -1070,19 +1070,19 @@
         <v>9607</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5595</v>
+        <v>4741</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18048</v>
+        <v>16452</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006949848400151013</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004047605259586769</v>
+        <v>0.003429787108321802</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.013055937102761</v>
+        <v>0.01190163528684078</v>
       </c>
     </row>
     <row r="9">
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6038</v>
+        <v>6739</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.00281414491693452</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.008700117719839728</v>
+        <v>0.009710857749943373</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1120,19 +1120,19 @@
         <v>3446</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1043</v>
+        <v>679</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9285</v>
+        <v>9135</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005005683750669497</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001514719112079273</v>
+        <v>0.0009865713134878202</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01348810713388916</v>
+        <v>0.0132712672604057</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -1141,19 +1141,19 @@
         <v>5399</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2038</v>
+        <v>2065</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12285</v>
+        <v>11638</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.003905426904538953</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.001474225469214674</v>
+        <v>0.001494151848451124</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.008886700404902312</v>
+        <v>0.008419200584297374</v>
       </c>
     </row>
     <row r="10">
@@ -1245,19 +1245,19 @@
         <v>540585</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>507990</v>
+        <v>507783</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>572899</v>
+        <v>571090</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.562055308145703</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5281659973164538</v>
+        <v>0.5279512168212979</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5956526035470451</v>
+        <v>0.5937720978965847</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>423</v>
@@ -1266,19 +1266,19 @@
         <v>446531</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>417866</v>
+        <v>413760</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>479957</v>
+        <v>481798</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4611051229147008</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4315044608932068</v>
+        <v>0.4272641050727169</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4956226363807797</v>
+        <v>0.4975234568851424</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>931</v>
@@ -1287,19 +1287,19 @@
         <v>987116</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>940039</v>
+        <v>942108</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1030973</v>
+        <v>1034425</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5114078053393348</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4870178959384936</v>
+        <v>0.4880899014571192</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5341295724444314</v>
+        <v>0.5359180599270309</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>214524</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>187447</v>
+        <v>188121</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>243476</v>
+        <v>242059</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2230444875075587</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1948915402351182</v>
+        <v>0.1955922139553608</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2531463818166497</v>
+        <v>0.2516725635480293</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>192</v>
@@ -1337,19 +1337,19 @@
         <v>204820</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>180296</v>
+        <v>179963</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>231254</v>
+        <v>233057</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.211505134067619</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1861805040547599</v>
+        <v>0.1858365768935843</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2388014726730471</v>
+        <v>0.2406634047469157</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>389</v>
@@ -1358,19 +1358,19 @@
         <v>419344</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>382834</v>
+        <v>380907</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>454094</v>
+        <v>458944</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2172551030265331</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1983397351628312</v>
+        <v>0.1973415760549376</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2352584223091693</v>
+        <v>0.2377709202988924</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>149183</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125974</v>
+        <v>125798</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>172149</v>
+        <v>174521</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1551079418932588</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1309773921804953</v>
+        <v>0.1307939406207875</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1789864215793882</v>
+        <v>0.1814526369002883</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>216</v>
@@ -1408,19 +1408,19 @@
         <v>232020</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>204395</v>
+        <v>205084</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>258263</v>
+        <v>260600</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2395930173593644</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2110658749298468</v>
+        <v>0.2117773514412281</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2666925574083294</v>
+        <v>0.2691056145098772</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>354</v>
@@ -1429,19 +1429,19 @@
         <v>381203</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>346602</v>
+        <v>347684</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>416622</v>
+        <v>421519</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1974947694852474</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1795683734509704</v>
+        <v>0.180128950660495</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2158445779732503</v>
+        <v>0.2183818381196923</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>44780</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32416</v>
+        <v>31605</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59078</v>
+        <v>59194</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04655844231208311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03370329345947799</v>
+        <v>0.03286075814515577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06142429849176455</v>
+        <v>0.06154505810844797</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>51</v>
@@ -1479,19 +1479,19 @@
         <v>56155</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41907</v>
+        <v>42027</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73187</v>
+        <v>72818</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05798799205863966</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04327500696699474</v>
+        <v>0.04339899802079803</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07557550564186913</v>
+        <v>0.07519494958517491</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>92</v>
@@ -1500,19 +1500,19 @@
         <v>100935</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>83157</v>
+        <v>81308</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>123507</v>
+        <v>121179</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05229273741555035</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04308196978506709</v>
+        <v>0.04212452966240817</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06398707801574194</v>
+        <v>0.0627809951719744</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>8494</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4102</v>
+        <v>4196</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15880</v>
+        <v>15964</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.008831852326391993</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.00426501039814573</v>
+        <v>0.004362843401974808</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01651078615715617</v>
+        <v>0.01659771275535928</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>15</v>
@@ -1550,19 +1550,19 @@
         <v>16037</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9301</v>
+        <v>9434</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>24479</v>
+        <v>25438</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01656039412356825</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.009604857060311537</v>
+        <v>0.009742300743478769</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02527807015625899</v>
+        <v>0.02626795475332986</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>23</v>
@@ -1571,19 +1571,19 @@
         <v>24531</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>16296</v>
+        <v>16131</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>37569</v>
+        <v>36900</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01270932260013061</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.00844290174770956</v>
+        <v>0.008357386808873466</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01946380564584504</v>
+        <v>0.019117247322054</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>4234</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2005</v>
+        <v>1073</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10899</v>
+        <v>10392</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004401967815004418</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002084251391776898</v>
+        <v>0.001115902333871241</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01133234212030755</v>
+        <v>0.01080423989834839</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1621,19 +1621,19 @@
         <v>12830</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6604</v>
+        <v>6219</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22116</v>
+        <v>22083</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0132483394761078</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006819799729276954</v>
+        <v>0.006421670650379733</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02283762536891404</v>
+        <v>0.02280344457308294</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1642,19 +1642,19 @@
         <v>17063</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9740</v>
+        <v>10070</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27967</v>
+        <v>28070</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008840262133203573</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005046081634651736</v>
+        <v>0.005217105815804575</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01448898606568852</v>
+        <v>0.01454244489246671</v>
       </c>
     </row>
     <row r="17">
@@ -1746,19 +1746,19 @@
         <v>400375</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>373512</v>
+        <v>374054</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>425369</v>
+        <v>427160</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5900802632065142</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5504899489249747</v>
+        <v>0.5512888292728411</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6269172366384417</v>
+        <v>0.6295573378977258</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>280</v>
@@ -1767,19 +1767,19 @@
         <v>276830</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>249260</v>
+        <v>251346</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>301202</v>
+        <v>302997</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4048156901571487</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3644992480050723</v>
+        <v>0.3675508406526732</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4404559325936838</v>
+        <v>0.4430805180825346</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>659</v>
@@ -1788,19 +1788,19 @@
         <v>677204</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>641973</v>
+        <v>639379</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>714818</v>
+        <v>714534</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4970854218351157</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4712248566951919</v>
+        <v>0.4693209842173556</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5246948270113768</v>
+        <v>0.5244865840128445</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>153984</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>134249</v>
+        <v>133936</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>180047</v>
+        <v>178895</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2269439669065277</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1978591424193586</v>
+        <v>0.1973972513379569</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2653574210663827</v>
+        <v>0.2636592123350975</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>215</v>
@@ -1838,19 +1838,19 @@
         <v>211226</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>187533</v>
+        <v>188293</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>235635</v>
+        <v>236025</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3088813361979846</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2742344611653118</v>
+        <v>0.2753466328493884</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3445761661673867</v>
+        <v>0.3451459940613205</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>361</v>
@@ -1859,19 +1859,19 @@
         <v>365209</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>332245</v>
+        <v>332634</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>398702</v>
+        <v>397094</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2680729994799511</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2438760855911092</v>
+        <v>0.2441621072934441</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2926573010797637</v>
+        <v>0.291477058844086</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>89741</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>73816</v>
+        <v>72682</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>113282</v>
+        <v>110553</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1322618118221889</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1087909979834621</v>
+        <v>0.1071202790724082</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1669568377760038</v>
+        <v>0.162935584402773</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>148</v>
@@ -1909,19 +1909,19 @@
         <v>144014</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>122339</v>
+        <v>124713</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>165118</v>
+        <v>167950</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.210595942226097</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1788996052736941</v>
+        <v>0.1823720132114686</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2414561257335653</v>
+        <v>0.2455978847884497</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>232</v>
@@ -1930,19 +1930,19 @@
         <v>233755</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>207321</v>
+        <v>209143</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>264077</v>
+        <v>260524</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1715821735674256</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1521788511241101</v>
+        <v>0.1535160203727904</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1938395902199107</v>
+        <v>0.1912312689311173</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>24850</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15974</v>
+        <v>16291</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>36552</v>
+        <v>36053</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03662467538689252</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02354303987516996</v>
+        <v>0.02400930925143106</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0538704648672987</v>
+        <v>0.0531363387765557</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>30</v>
@@ -1980,19 +1980,19 @@
         <v>29404</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>20182</v>
+        <v>20019</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>40619</v>
+        <v>40379</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04299774400256517</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02951233046125506</v>
+        <v>0.02927422231596454</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05939813635761167</v>
+        <v>0.05904734221625717</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>54</v>
@@ -2001,19 +2001,19 @@
         <v>54254</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>40853</v>
+        <v>41656</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>69494</v>
+        <v>70145</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03982368151746879</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02998749139772824</v>
+        <v>0.03057662994730784</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05101037369844143</v>
+        <v>0.051488254705864</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>6863</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2502</v>
+        <v>2471</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15203</v>
+        <v>15447</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01011457525002113</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003687076740267951</v>
+        <v>0.003642399868712456</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02240721298400448</v>
+        <v>0.02276648937465453</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -2051,19 +2051,19 @@
         <v>16463</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10059</v>
+        <v>9377</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24893</v>
+        <v>25079</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02407382936007852</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01470932522047295</v>
+        <v>0.01371270980010189</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03640145386444549</v>
+        <v>0.03667416773569725</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -2072,19 +2072,19 @@
         <v>23326</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15673</v>
+        <v>15791</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36458</v>
+        <v>35071</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01712151996838306</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01150423074588143</v>
+        <v>0.01159097046051335</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02676086341386706</v>
+        <v>0.02574333071675168</v>
       </c>
     </row>
     <row r="23">
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9422</v>
+        <v>8707</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003974707427855628</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01388618439526853</v>
+        <v>0.01283307645474193</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -2122,19 +2122,19 @@
         <v>5905</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2082</v>
+        <v>2217</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12056</v>
+        <v>12066</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008635458056125948</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003044826004306959</v>
+        <v>0.00324145197761174</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01763043920579248</v>
+        <v>0.01764437295138609</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -2143,19 +2143,19 @@
         <v>8602</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3823</v>
+        <v>3785</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>16152</v>
+        <v>15703</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006314203631655768</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002806158819303909</v>
+        <v>0.002778258098489343</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0118563315968403</v>
+        <v>0.01152642548191168</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>486833</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>455450</v>
+        <v>458095</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>517445</v>
+        <v>517491</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5166863540244629</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4833786723585783</v>
+        <v>0.4861857379140577</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5491750548384099</v>
+        <v>0.5492245800482618</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>443</v>
@@ -2268,19 +2268,19 @@
         <v>456903</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>421055</v>
+        <v>424254</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>485595</v>
+        <v>489767</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4399172968096826</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4054018106733992</v>
+        <v>0.4084814116665519</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4675426517007206</v>
+        <v>0.4715588964071549</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>965</v>
@@ -2289,19 +2289,19 @@
         <v>943737</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>902929</v>
+        <v>898558</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>985633</v>
+        <v>986542</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4764339854369456</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4558327195914453</v>
+        <v>0.4536262183016826</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4975847909743683</v>
+        <v>0.4980436782659011</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>238492</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>214889</v>
+        <v>211535</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>263580</v>
+        <v>265781</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2531162890096074</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2280662654980437</v>
+        <v>0.2245062130175071</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2797430343082108</v>
+        <v>0.2820793898515535</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>231</v>
@@ -2339,19 +2339,19 @@
         <v>244570</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>219496</v>
+        <v>216297</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>272103</v>
+        <v>274037</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.235477732009385</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2113357306207137</v>
+        <v>0.2082559184717613</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2619867253422637</v>
+        <v>0.2638489693202897</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>477</v>
@@ -2360,19 +2360,19 @@
         <v>483062</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>443528</v>
+        <v>446667</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>518998</v>
+        <v>522009</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2438678532011735</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2239097290550115</v>
+        <v>0.2254943252018567</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2620097029684461</v>
+        <v>0.2635297077943161</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>170326</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>148212</v>
+        <v>150520</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>194092</v>
+        <v>194930</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1807705348505804</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1573006307783488</v>
+        <v>0.1597498521028459</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2059935019246267</v>
+        <v>0.2068830064385783</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>216</v>
@@ -2410,19 +2410,19 @@
         <v>226660</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>199683</v>
+        <v>198644</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>254571</v>
+        <v>253575</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2182331764822306</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1922599138996041</v>
+        <v>0.191259575602734</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.245106699255904</v>
+        <v>0.2441481181852209</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>394</v>
@@ -2431,19 +2431,19 @@
         <v>396986</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>360110</v>
+        <v>362326</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>432954</v>
+        <v>435420</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2004133455601136</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1817969580129738</v>
+        <v>0.1829160957806209</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2185716822950312</v>
+        <v>0.2198166739931098</v>
       </c>
     </row>
     <row r="28">
@@ -2460,19 +2460,19 @@
         <v>28942</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19756</v>
+        <v>19818</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>40462</v>
+        <v>40909</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03071724038656892</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02096776806707727</v>
+        <v>0.02103279680779341</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04294322712230466</v>
+        <v>0.04341796588134452</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>59</v>
@@ -2481,19 +2481,19 @@
         <v>60113</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>48210</v>
+        <v>45788</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>77531</v>
+        <v>75847</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05787810035639872</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04641772474034804</v>
+        <v>0.04408591797429258</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07464834841959542</v>
+        <v>0.07302759649134781</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>89</v>
@@ -2502,19 +2502,19 @@
         <v>89055</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>72724</v>
+        <v>72701</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>111474</v>
+        <v>108008</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04495851136636991</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03671396568189272</v>
+        <v>0.03670235954320373</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05627611858690031</v>
+        <v>0.05452645589903864</v>
       </c>
     </row>
     <row r="29">
@@ -2531,19 +2531,19 @@
         <v>9833</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4834</v>
+        <v>4908</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18877</v>
+        <v>19354</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01043549926407937</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005130603519407378</v>
+        <v>0.005209409890011205</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02003416578888766</v>
+        <v>0.02054107520820856</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -2552,19 +2552,19 @@
         <v>24588</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16159</v>
+        <v>16376</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>37075</v>
+        <v>35653</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02367351449706554</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01555869192131062</v>
+        <v>0.01576690656228558</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0356966727193067</v>
+        <v>0.03432777865324804</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>33</v>
@@ -2573,19 +2573,19 @@
         <v>34420</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>24381</v>
+        <v>23769</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>49273</v>
+        <v>46194</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01737659620935664</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01230840851973095</v>
+        <v>0.01199935854079943</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02487498872979861</v>
+        <v>0.02332060025415204</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>7796</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3567</v>
+        <v>3489</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14637</v>
+        <v>14124</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.008274082464700898</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003786161794490586</v>
+        <v>0.003703209303061253</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0155347643724379</v>
+        <v>0.01498999897647864</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>24</v>
@@ -2623,19 +2623,19 @@
         <v>25779</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17988</v>
+        <v>16358</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>38564</v>
+        <v>38355</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02482017984523756</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01731922218853211</v>
+        <v>0.01575009594256623</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03713053194168012</v>
+        <v>0.03692933792664614</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>33</v>
@@ -2644,19 +2644,19 @@
         <v>33575</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>22772</v>
+        <v>23628</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>46507</v>
+        <v>46549</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01694970822604069</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01149635448721604</v>
+        <v>0.01192814434021318</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02347835467608718</v>
+        <v>0.02349966995049857</v>
       </c>
     </row>
     <row r="31">
@@ -2748,19 +2748,19 @@
         <v>1837314</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1779416</v>
+        <v>1780177</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1892916</v>
+        <v>1891990</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5607477467814201</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5430773589377383</v>
+        <v>0.5433096266770356</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5777174063649682</v>
+        <v>0.5774349291579618</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1477</v>
@@ -2769,19 +2769,19 @@
         <v>1502825</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1445003</v>
+        <v>1444740</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1563002</v>
+        <v>1560082</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4447283206564175</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4276173997091516</v>
+        <v>0.4275395147549734</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.462536562085221</v>
+        <v>0.4616723936434191</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3283</v>
@@ -2790,19 +2790,19 @@
         <v>3340139</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3256695</v>
+        <v>3257047</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3431805</v>
+        <v>3420696</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.501843328129618</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4893061069805331</v>
+        <v>0.4893589692811431</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5156157956957801</v>
+        <v>0.5139466929335255</v>
       </c>
     </row>
     <row r="33">
@@ -2819,19 +2819,19 @@
         <v>776323</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>729985</v>
+        <v>729399</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>830359</v>
+        <v>827243</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2369334869646692</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.222791333518463</v>
+        <v>0.2226122320599005</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2534252283065397</v>
+        <v>0.2524744021005132</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>832</v>
@@ -2840,19 +2840,19 @@
         <v>855986</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>807748</v>
+        <v>804884</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>904536</v>
+        <v>908798</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2533103946256393</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2390354385858886</v>
+        <v>0.238187983059292</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2676777628303952</v>
+        <v>0.2689389278762157</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1589</v>
@@ -2861,19 +2861,19 @@
         <v>1632309</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1563161</v>
+        <v>1563836</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1707712</v>
+        <v>1705973</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2452482343936413</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2348590921393613</v>
+        <v>0.2349604811900392</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2565773235174501</v>
+        <v>0.2563160496996108</v>
       </c>
     </row>
     <row r="34">
@@ -2890,19 +2890,19 @@
         <v>496861</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>455062</v>
+        <v>456386</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>539650</v>
+        <v>538843</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1516417000374873</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.138884932855903</v>
+        <v>0.1392887631432594</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1647009794185063</v>
+        <v>0.1644545818767248</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>711</v>
@@ -2911,19 +2911,19 @@
         <v>733861</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>684252</v>
+        <v>686415</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>775832</v>
+        <v>783527</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2171701858730077</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2024895543262124</v>
+        <v>0.2031297556904628</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2295905086164817</v>
+        <v>0.2318676840911357</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1200</v>
@@ -2932,19 +2932,19 @@
         <v>1230722</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1168894</v>
+        <v>1172549</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1296626</v>
+        <v>1301247</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1849112781779221</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1756219504246559</v>
+        <v>0.1761710887972264</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1948131647535263</v>
+        <v>0.1955075309624647</v>
       </c>
     </row>
     <row r="35">
@@ -2961,19 +2961,19 @@
         <v>116457</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>97442</v>
+        <v>94805</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>140483</v>
+        <v>139289</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03554266027457679</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02973927057759441</v>
+        <v>0.02893443434445727</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04287522179793309</v>
+        <v>0.04251081948619388</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>175</v>
@@ -2982,19 +2982,19 @@
         <v>179591</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>157781</v>
+        <v>153175</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>208404</v>
+        <v>206837</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05314611781388203</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04669199689258483</v>
+        <v>0.04532888903001359</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06167253322622487</v>
+        <v>0.06120895778365723</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>289</v>
@@ -3003,19 +3003,19 @@
         <v>296048</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>263562</v>
+        <v>262968</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>328248</v>
+        <v>333421</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04448014141241013</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03959917839457693</v>
+        <v>0.03951001692203587</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04931809622258435</v>
+        <v>0.05009518786625515</v>
       </c>
     </row>
     <row r="36">
@@ -3032,19 +3032,19 @@
         <v>32909</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>23311</v>
+        <v>22148</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>47646</v>
+        <v>46033</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01004374779521033</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.007114432042143282</v>
+        <v>0.006759459552428291</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01454140838496306</v>
+        <v>0.01404930845018056</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>58</v>
@@ -3053,19 +3053,19 @@
         <v>58976</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>45031</v>
+        <v>45089</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>74753</v>
+        <v>75286</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01745253153660269</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01332600926887022</v>
+        <v>0.01334323513822688</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02212164258406391</v>
+        <v>0.02227916834493234</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>89</v>
@@ -3074,19 +3074,19 @@
         <v>91884</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>73400</v>
+        <v>72323</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>112380</v>
+        <v>111556</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01380527389286091</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01102800862028068</v>
+        <v>0.0108661884706436</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01688472170635629</v>
+        <v>0.0167608544169068</v>
       </c>
     </row>
     <row r="37">
@@ -3103,19 +3103,19 @@
         <v>16680</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>10087</v>
+        <v>10307</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>26696</v>
+        <v>27196</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.005090658146636333</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003078545051530508</v>
+        <v>0.003145608617708306</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.008147485820598856</v>
+        <v>0.008300252899360587</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>44</v>
@@ -3124,19 +3124,19 @@
         <v>47959</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>35201</v>
+        <v>34750</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>64054</v>
+        <v>64902</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01419244949445087</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0104170937340719</v>
+        <v>0.01028336269325003</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01895526888708713</v>
+        <v>0.01920641765581107</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>61</v>
@@ -3145,19 +3145,19 @@
         <v>64639</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>49522</v>
+        <v>49422</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>81838</v>
+        <v>83099</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.009711743993547611</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.007440519520580186</v>
+        <v>0.007425451718850605</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01229585539557421</v>
+        <v>0.01248533398568824</v>
       </c>
     </row>
     <row r="38">
@@ -3489,19 +3489,19 @@
         <v>273889</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>249029</v>
+        <v>248580</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>298812</v>
+        <v>302765</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.389874956180481</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3544870288125484</v>
+        <v>0.3538491834616916</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4253525066865628</v>
+        <v>0.430980105785657</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>187</v>
@@ -3510,19 +3510,19 @@
         <v>197067</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>172090</v>
+        <v>174958</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>223326</v>
+        <v>220944</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2835139778130329</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2475797218311152</v>
+        <v>0.2517057090076552</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3212910535951631</v>
+        <v>0.3178649615056173</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>452</v>
@@ -3531,19 +3531,19 @@
         <v>470956</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>436102</v>
+        <v>433923</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>509602</v>
+        <v>507660</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3369765947796084</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3120377102985226</v>
+        <v>0.3104789325448872</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3646283843412171</v>
+        <v>0.3632390625136784</v>
       </c>
     </row>
     <row r="5">
@@ -3560,19 +3560,19 @@
         <v>252387</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>225930</v>
+        <v>226959</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>278288</v>
+        <v>277797</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3592683451037871</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3216072638457055</v>
+        <v>0.3230708202444019</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3961374873567111</v>
+        <v>0.3954389853311341</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>207</v>
@@ -3581,19 +3581,19 @@
         <v>226323</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>201426</v>
+        <v>200291</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>252021</v>
+        <v>249201</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3256022358871868</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2897837719082348</v>
+        <v>0.2881515486679044</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3625731400734845</v>
+        <v>0.358517394301813</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>444</v>
@@ -3602,19 +3602,19 @@
         <v>478710</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>445530</v>
+        <v>443446</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>516120</v>
+        <v>517148</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3425245915238933</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3187835935294982</v>
+        <v>0.3172923163419137</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3692922850712491</v>
+        <v>0.3700276944575973</v>
       </c>
     </row>
     <row r="6">
@@ -3631,19 +3631,19 @@
         <v>117614</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97526</v>
+        <v>97287</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>138109</v>
+        <v>137175</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1674212777539461</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.138825859920807</v>
+        <v>0.1384853784963396</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1965958169603115</v>
+        <v>0.1952656926153589</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>164</v>
@@ -3652,19 +3652,19 @@
         <v>174419</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>152744</v>
+        <v>153355</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>200124</v>
+        <v>197488</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2509309007754641</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2197471839288697</v>
+        <v>0.2206267496979933</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2879110070979295</v>
+        <v>0.284119420085706</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>277</v>
@@ -3673,19 +3673,19 @@
         <v>292033</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>262276</v>
+        <v>261065</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>324499</v>
+        <v>324610</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.208954575837963</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1876623230687467</v>
+        <v>0.1867958274149865</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2321840304427329</v>
+        <v>0.2322636560304079</v>
       </c>
     </row>
     <row r="7">
@@ -3702,19 +3702,19 @@
         <v>37424</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27587</v>
+        <v>27567</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51827</v>
+        <v>50493</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05327289226566442</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03926927117948538</v>
+        <v>0.0392411645657741</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07377511541902559</v>
+        <v>0.07187536567476153</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -3723,19 +3723,19 @@
         <v>53070</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41318</v>
+        <v>40447</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72193</v>
+        <v>69139</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07634965908261085</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05944274248020859</v>
+        <v>0.05818899561854029</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1038611383507209</v>
+        <v>0.0994684182065823</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -3744,19 +3744,19 @@
         <v>90494</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72030</v>
+        <v>73381</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110521</v>
+        <v>110279</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06475006340289513</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05153856248315593</v>
+        <v>0.05250525426939952</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07907962307026568</v>
+        <v>0.07890618864322753</v>
       </c>
     </row>
     <row r="8">
@@ -3773,19 +3773,19 @@
         <v>12707</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6847</v>
+        <v>7010</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20277</v>
+        <v>21018</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01808819997330485</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009746087728671197</v>
+        <v>0.009978229530758411</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02886339080879839</v>
+        <v>0.0299187587986378</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -3794,19 +3794,19 @@
         <v>25656</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16402</v>
+        <v>17074</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37483</v>
+        <v>38425</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0369109419162662</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02359665785999667</v>
+        <v>0.02456353647533708</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05392613509464265</v>
+        <v>0.05528069463087305</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>37</v>
@@ -3815,19 +3815,19 @@
         <v>38363</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27121</v>
+        <v>26488</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>52324</v>
+        <v>53258</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02744964268600995</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01940586043616563</v>
+        <v>0.01895269821414359</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03743896593046412</v>
+        <v>0.03810694019840808</v>
       </c>
     </row>
     <row r="9">
@@ -3844,19 +3844,19 @@
         <v>8482</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3824</v>
+        <v>4126</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16060</v>
+        <v>15721</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01207432872281657</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005443775248372392</v>
+        <v>0.005873835313317903</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02286119395791448</v>
+        <v>0.02237884410879736</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -3865,19 +3865,19 @@
         <v>18554</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11296</v>
+        <v>10646</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>29487</v>
+        <v>29623</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02669228452543915</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01625094556775413</v>
+        <v>0.01531574781468303</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04242260515192175</v>
+        <v>0.04261773852513601</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -3886,19 +3886,19 @@
         <v>27036</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>16945</v>
+        <v>18241</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>38855</v>
+        <v>39187</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01934453176963031</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01212475142791485</v>
+        <v>0.01305188807747092</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02780108039498909</v>
+        <v>0.02803896222217959</v>
       </c>
     </row>
     <row r="10">
@@ -3990,19 +3990,19 @@
         <v>429158</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>397488</v>
+        <v>395451</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>463866</v>
+        <v>464376</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4225310553282433</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3913504545043408</v>
+        <v>0.3893440569321724</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4567029611761878</v>
+        <v>0.457205029617781</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>315</v>
@@ -4011,19 +4011,19 @@
         <v>349577</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>319729</v>
+        <v>319295</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>379719</v>
+        <v>380508</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3393672888046925</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3103915638916682</v>
+        <v>0.3099695496386721</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3686292076019523</v>
+        <v>0.3693949082596694</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>719</v>
@@ -4032,19 +4032,19 @@
         <v>778735</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>731367</v>
+        <v>733122</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>821282</v>
+        <v>825302</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.380656490412416</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3575024199892781</v>
+        <v>0.3583603786601444</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.401453955125577</v>
+        <v>0.4034190197717631</v>
       </c>
     </row>
     <row r="12">
@@ -4061,19 +4061,19 @@
         <v>312353</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>278889</v>
+        <v>281894</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>342207</v>
+        <v>343181</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3075295146322293</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2745827393575705</v>
+        <v>0.2775413687461677</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.336922475435804</v>
+        <v>0.3378817451446309</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>263</v>
@@ -4082,19 +4082,19 @@
         <v>285828</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>257237</v>
+        <v>257202</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>317063</v>
+        <v>314947</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2774802457165437</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2497241340798511</v>
+        <v>0.249690530200039</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3078033403810453</v>
+        <v>0.3057488861629076</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>547</v>
@@ -4103,19 +4103,19 @@
         <v>598181</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>556935</v>
+        <v>554537</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>643341</v>
+        <v>640123</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2923991265499785</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2722375778586872</v>
+        <v>0.2710652674091124</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3144743028687442</v>
+        <v>0.3129012362429649</v>
       </c>
     </row>
     <row r="13">
@@ -4132,19 +4132,19 @@
         <v>191346</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>165200</v>
+        <v>163860</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>215376</v>
+        <v>217769</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1883915136768877</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1626491331882954</v>
+        <v>0.1613296095744015</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2120500994561805</v>
+        <v>0.2144063446730026</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>236</v>
@@ -4153,19 +4153,19 @@
         <v>254667</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>226375</v>
+        <v>228076</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>281757</v>
+        <v>281129</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2472297529790726</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2197638084607187</v>
+        <v>0.2214146897991226</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2735284668703202</v>
+        <v>0.2729181236106233</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>407</v>
@@ -4174,19 +4174,19 @@
         <v>446014</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>403214</v>
+        <v>407789</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>484614</v>
+        <v>480138</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.218017705156498</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1970964565002709</v>
+        <v>0.1993331163836218</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2368860546210619</v>
+        <v>0.2346980599116945</v>
       </c>
     </row>
     <row r="14">
@@ -4203,19 +4203,19 @@
         <v>41917</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29495</v>
+        <v>29252</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56511</v>
+        <v>55858</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04126959033913557</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02903976550561507</v>
+        <v>0.02880066319999606</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05563865628361173</v>
+        <v>0.05499562800554632</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -4224,19 +4224,19 @@
         <v>77381</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>62017</v>
+        <v>61549</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95996</v>
+        <v>97148</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07512114731158324</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06020551066143127</v>
+        <v>0.05975147309830708</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09319246478966005</v>
+        <v>0.09431029112236518</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>106</v>
@@ -4245,19 +4245,19 @@
         <v>119298</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>98397</v>
+        <v>99007</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>141824</v>
+        <v>145109</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05831450399805654</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04809802462243764</v>
+        <v>0.04839599401116022</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06932532132845411</v>
+        <v>0.07093106714158597</v>
       </c>
     </row>
     <row r="15">
@@ -4274,19 +4274,19 @@
         <v>30557</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19826</v>
+        <v>19955</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>42766</v>
+        <v>44368</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0300847885317483</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01951958343256954</v>
+        <v>0.01964646736903105</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0421056223796126</v>
+        <v>0.04368266509885489</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>37</v>
@@ -4295,19 +4295,19 @@
         <v>41690</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>29974</v>
+        <v>29889</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>55600</v>
+        <v>57189</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04047229946130763</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02909885833955507</v>
+        <v>0.02901607910455861</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05397655331973517</v>
+        <v>0.05551876231988106</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>64</v>
@@ -4316,19 +4316,19 @@
         <v>72247</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>56338</v>
+        <v>55949</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>91413</v>
+        <v>91253</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03531510118973162</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02753861283246061</v>
+        <v>0.0273487455575248</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04468378222208708</v>
+        <v>0.04460597292193531</v>
       </c>
     </row>
     <row r="16">
@@ -4345,19 +4345,19 @@
         <v>10353</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5254</v>
+        <v>5268</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18920</v>
+        <v>19117</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01019353749175591</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005173080813855227</v>
+        <v>0.005186913508126001</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01862795951240823</v>
+        <v>0.01882157012734067</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -4366,19 +4366,19 @@
         <v>20941</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12791</v>
+        <v>13324</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31627</v>
+        <v>30907</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02032926572680024</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01241711852295971</v>
+        <v>0.01293462461476061</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03070324308477654</v>
+        <v>0.03000469532237865</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -4387,19 +4387,19 @@
         <v>31294</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21611</v>
+        <v>21589</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45366</v>
+        <v>43608</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01529707269331938</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0105636508872891</v>
+        <v>0.01055316935249855</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02217574996149694</v>
+        <v>0.02131614353209097</v>
       </c>
     </row>
     <row r="17">
@@ -4491,19 +4491,19 @@
         <v>404543</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>374160</v>
+        <v>377320</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>433102</v>
+        <v>435140</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5349575609427378</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4947802726938343</v>
+        <v>0.4989584308524406</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5727237573053621</v>
+        <v>0.5754178063914324</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>272</v>
@@ -4512,19 +4512,19 @@
         <v>303449</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>278865</v>
+        <v>275181</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>333338</v>
+        <v>330867</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3914462595220927</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3597328433354921</v>
+        <v>0.3549805918070274</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.430002420797015</v>
+        <v>0.4268153214716596</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>640</v>
@@ -4533,19 +4533,19 @@
         <v>707992</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>669934</v>
+        <v>663353</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>749827</v>
+        <v>748696</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4623123601478658</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4374608911974777</v>
+        <v>0.4331632115547757</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4896304725104783</v>
+        <v>0.4888914982162262</v>
       </c>
     </row>
     <row r="19">
@@ -4562,19 +4562,19 @@
         <v>159816</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>138683</v>
+        <v>136514</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>185474</v>
+        <v>182835</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2113361184242019</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1833912349456089</v>
+        <v>0.1805232842358981</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2452661368417336</v>
+        <v>0.2417767128478414</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>181</v>
@@ -4583,19 +4583,19 @@
         <v>195061</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>171115</v>
+        <v>168909</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>221302</v>
+        <v>219373</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2516267796448302</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2207363642612658</v>
+        <v>0.2178903337846363</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2854775554032113</v>
+        <v>0.2829884730261675</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>334</v>
@@ -4604,19 +4604,19 @@
         <v>354877</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>322366</v>
+        <v>323546</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>390596</v>
+        <v>388034</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2317311893737128</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2105020804532674</v>
+        <v>0.2112726563210438</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2550556123129374</v>
+        <v>0.2533827650062621</v>
       </c>
     </row>
     <row r="20">
@@ -4633,19 +4633,19 @@
         <v>140248</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>118984</v>
+        <v>118902</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>163904</v>
+        <v>166954</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1854605850771532</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.157341334023176</v>
+        <v>0.1572327789167544</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2167425283499831</v>
+        <v>0.2207754669388343</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>170</v>
@@ -4654,19 +4654,19 @@
         <v>188144</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>164120</v>
+        <v>164595</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>213368</v>
+        <v>217099</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2427033299322988</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2117124771073485</v>
+        <v>0.2123256019796664</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2752418859671671</v>
+        <v>0.280055014403989</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>290</v>
@@ -4675,19 +4675,19 @@
         <v>328392</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>294877</v>
+        <v>296882</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>361796</v>
+        <v>362037</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2144367747771057</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1925521274044278</v>
+        <v>0.193861092578225</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2362497788928683</v>
+        <v>0.2364070363805598</v>
       </c>
     </row>
     <row r="21">
@@ -4704,19 +4704,19 @@
         <v>23264</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15096</v>
+        <v>15205</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>33518</v>
+        <v>32763</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03076317714632274</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01996286272104797</v>
+        <v>0.02010677628979576</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04432393889587577</v>
+        <v>0.04332552608295145</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>32</v>
@@ -4725,19 +4725,19 @@
         <v>34165</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>23776</v>
+        <v>23958</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>48768</v>
+        <v>46981</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0440718863940104</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03067137502092664</v>
+        <v>0.03090553969726614</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06291034011782083</v>
+        <v>0.06060521305749472</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>55</v>
@@ -4746,19 +4746,19 @@
         <v>57428</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>44620</v>
+        <v>45419</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>74860</v>
+        <v>74613</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03750002536697275</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02913662232925276</v>
+        <v>0.02965822401720515</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04888298780709464</v>
+        <v>0.04872155808467975</v>
       </c>
     </row>
     <row r="22">
@@ -4775,19 +4775,19 @@
         <v>17965</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10302</v>
+        <v>9708</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29800</v>
+        <v>29647</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02375590357987191</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01362327718799457</v>
+        <v>0.01283759061733821</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03940631389555791</v>
+        <v>0.03920401672325604</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -4796,19 +4796,19 @@
         <v>39008</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26885</v>
+        <v>29018</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53552</v>
+        <v>53795</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05032014864863661</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0346807613753104</v>
+        <v>0.03743284912318569</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06908097585115405</v>
+        <v>0.06939471802460935</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -4817,19 +4817,19 @@
         <v>56973</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41654</v>
+        <v>42704</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74482</v>
+        <v>76058</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03720268371412962</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02719973186359738</v>
+        <v>0.02788521623539348</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0486359767205254</v>
+        <v>0.04966531761428355</v>
       </c>
     </row>
     <row r="23">
@@ -4846,19 +4846,19 @@
         <v>10380</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4727</v>
+        <v>4833</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19950</v>
+        <v>19616</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01372665482971251</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006251073791062295</v>
+        <v>0.006390622573507808</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02638181282200593</v>
+        <v>0.02594031585588496</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -4867,19 +4867,19 @@
         <v>15373</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8343</v>
+        <v>8972</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24133</v>
+        <v>25157</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01983159585813129</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01076204429781786</v>
+        <v>0.01157406293365253</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03113162501923546</v>
+        <v>0.03245219607499115</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>23</v>
@@ -4888,19 +4888,19 @@
         <v>25754</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16430</v>
+        <v>16649</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>37240</v>
+        <v>38433</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01681696662021332</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01072879942421561</v>
+        <v>0.01087159798173565</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02431712369280082</v>
+        <v>0.02509625377529812</v>
       </c>
     </row>
     <row r="24">
@@ -4992,19 +4992,19 @@
         <v>384079</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>356204</v>
+        <v>351575</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>415633</v>
+        <v>413966</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4056595739639945</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.37621849903675</v>
+        <v>0.3713289074131314</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.43898654673708</v>
+        <v>0.4372253336327463</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>300</v>
@@ -5013,19 +5013,19 @@
         <v>313248</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>281127</v>
+        <v>281482</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>341955</v>
+        <v>344765</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2977926469158045</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2672559385168518</v>
+        <v>0.2675940266977961</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3250824081563183</v>
+        <v>0.3277539203494147</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>676</v>
@@ -5034,19 +5034,19 @@
         <v>697328</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>655964</v>
+        <v>653883</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>741800</v>
+        <v>738193</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3488901047337475</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3281949727400469</v>
+        <v>0.3271535311241978</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3711404924410432</v>
+        <v>0.36933588186062</v>
       </c>
     </row>
     <row r="26">
@@ -5063,19 +5063,19 @@
         <v>281410</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>252821</v>
+        <v>253689</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>311701</v>
+        <v>309856</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2972216161200443</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2670259839602368</v>
+        <v>0.2679432372471462</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3292150237111053</v>
+        <v>0.327265860820372</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>299</v>
@@ -5084,19 +5084,19 @@
         <v>310987</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>282631</v>
+        <v>280364</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>342326</v>
+        <v>341585</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2956425414739962</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2686860201824291</v>
+        <v>0.2665308236283418</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3254360218829447</v>
+        <v>0.3247312834867866</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>564</v>
@@ -5105,19 +5105,19 @@
         <v>592397</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>551414</v>
+        <v>551888</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>634019</v>
+        <v>632596</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2963905622281406</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2758859431231869</v>
+        <v>0.2761228264595466</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3172150875364173</v>
+        <v>0.3165034030084282</v>
       </c>
     </row>
     <row r="27">
@@ -5134,19 +5134,19 @@
         <v>197854</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>173080</v>
+        <v>172803</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>224087</v>
+        <v>224908</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2089708303337344</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1828049831246374</v>
+        <v>0.1825126067107727</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2366779778433132</v>
+        <v>0.2375446573392465</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>268</v>
@@ -5155,19 +5155,19 @@
         <v>281228</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>252457</v>
+        <v>251493</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>311340</v>
+        <v>309293</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2673522544837459</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2400004178694356</v>
+        <v>0.2390843625503802</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.295978302258034</v>
+        <v>0.2940327206058932</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>457</v>
@@ -5176,19 +5176,19 @@
         <v>479082</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>443277</v>
+        <v>441488</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>521490</v>
+        <v>517217</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2396964897420293</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2217821438087971</v>
+        <v>0.2208872664225816</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2609143476313658</v>
+        <v>0.2587762982966786</v>
       </c>
     </row>
     <row r="28">
@@ -5205,19 +5205,19 @@
         <v>51715</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>38538</v>
+        <v>37681</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>67437</v>
+        <v>66842</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05462032648526455</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04070288383989007</v>
+        <v>0.03979855856976332</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07122651456415084</v>
+        <v>0.07059754738584803</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>76</v>
@@ -5226,19 +5226,19 @@
         <v>80629</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>64529</v>
+        <v>65073</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>100293</v>
+        <v>99480</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07665034563249505</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06134514090250787</v>
+        <v>0.06186213643642666</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0953446794888078</v>
+        <v>0.09457168869620849</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>124</v>
@@ -5247,19 +5247,19 @@
         <v>132343</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>109999</v>
+        <v>111841</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>156770</v>
+        <v>156596</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06621454288082136</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05503539330744674</v>
+        <v>0.0559566125128546</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07843600445111557</v>
+        <v>0.07834900422833981</v>
       </c>
     </row>
     <row r="29">
@@ -5276,19 +5276,19 @@
         <v>27775</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18148</v>
+        <v>18697</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>38876</v>
+        <v>39694</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02933517529873115</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01916784478057739</v>
+        <v>0.01974760575092985</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04105994923554319</v>
+        <v>0.04192439649646022</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>43</v>
@@ -5297,19 +5297,19 @@
         <v>47293</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>34675</v>
+        <v>35403</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>63404</v>
+        <v>64048</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04495955127113866</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03296368538500043</v>
+        <v>0.03365615898723048</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06027562009960673</v>
+        <v>0.06088773338513213</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>70</v>
@@ -5318,19 +5318,19 @@
         <v>75068</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>59316</v>
+        <v>57791</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>93892</v>
+        <v>93712</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03755815480950495</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02967730037747456</v>
+        <v>0.02891442423284516</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04697625749234399</v>
+        <v>0.04688644959171231</v>
       </c>
     </row>
     <row r="30">
@@ -5347,19 +5347,19 @@
         <v>3969</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9587</v>
+        <v>9309</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.004192477798231064</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.001041486827924507</v>
+        <v>0.001053430855557353</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01012523817160476</v>
+        <v>0.009832376904369881</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -5368,19 +5368,19 @@
         <v>18516</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10315</v>
+        <v>10337</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>28379</v>
+        <v>30039</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01760266022281971</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.009805688609726169</v>
+        <v>0.009826638587046462</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02697870091334869</v>
+        <v>0.02855666414028079</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>21</v>
@@ -5389,19 +5389,19 @@
         <v>22486</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>15015</v>
+        <v>14051</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>34598</v>
+        <v>34872</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0112501456057563</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.007512498974500559</v>
+        <v>0.007029943368463664</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01731030045418833</v>
+        <v>0.01744725122163165</v>
       </c>
     </row>
     <row r="31">
@@ -5493,19 +5493,19 @@
         <v>1491669</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1432634</v>
+        <v>1433319</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1550260</v>
+        <v>1550068</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4360068939114453</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4187512542874995</v>
+        <v>0.418951565722849</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4531327316177146</v>
+        <v>0.4530764997069867</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1074</v>
@@ -5514,19 +5514,19 @@
         <v>1163342</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1112365</v>
+        <v>1103488</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1223633</v>
+        <v>1215269</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3274921218587433</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3131415935374885</v>
+        <v>0.3106426669591962</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3444646369693051</v>
+        <v>0.3421102241057108</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2487</v>
@@ -5535,19 +5535,19 @@
         <v>2655011</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2573538</v>
+        <v>2571515</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2738374</v>
+        <v>2746861</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3807297239371245</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3690465565558889</v>
+        <v>0.3687563506966726</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3926841213011357</v>
+        <v>0.3939010312186412</v>
       </c>
     </row>
     <row r="33">
@@ -5564,19 +5564,19 @@
         <v>1005966</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>947651</v>
+        <v>953377</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1061508</v>
+        <v>1058736</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2940384489362591</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2769934183981408</v>
+        <v>0.2786671344555695</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3102732478307609</v>
+        <v>0.309462886315242</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>950</v>
@@ -5585,19 +5585,19 @@
         <v>1018198</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>960854</v>
+        <v>965274</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1076660</v>
+        <v>1073271</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2866328111156318</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2704899265443996</v>
+        <v>0.2717341734718093</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3030903151847235</v>
+        <v>0.3021364192295319</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1889</v>
@@ -5606,19 +5606,19 @@
         <v>2024164</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1944433</v>
+        <v>1956446</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>2106040</v>
+        <v>2104972</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2902660344268294</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2788325234001399</v>
+        <v>0.2805552679959381</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3020070749805787</v>
+        <v>0.30185385802404</v>
       </c>
     </row>
     <row r="34">
@@ -5635,19 +5635,19 @@
         <v>647062</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>599101</v>
+        <v>597537</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>696879</v>
+        <v>694733</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1891329095834745</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1751141473873183</v>
+        <v>0.1746567953725733</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2036940909188268</v>
+        <v>0.2030666344035734</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>838</v>
@@ -5656,19 +5656,19 @@
         <v>898458</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>848488</v>
+        <v>841590</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>954369</v>
+        <v>951731</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2529248734261291</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2388576654278856</v>
+        <v>0.2369158700855317</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2686642172313156</v>
+        <v>0.2679217385669052</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1431</v>
@@ -5677,19 +5677,19 @@
         <v>1545521</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1476904</v>
+        <v>1475431</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1615842</v>
+        <v>1620985</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2216283861128227</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.211788630907001</v>
+        <v>0.2115774383137254</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2317124734961988</v>
+        <v>0.2324499376372693</v>
       </c>
     </row>
     <row r="35">
@@ -5706,19 +5706,19 @@
         <v>154319</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>130963</v>
+        <v>130431</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>181189</v>
+        <v>179232</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04510676644919552</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03827986320297825</v>
+        <v>0.03812428846887115</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05296049480574957</v>
+        <v>0.05238843483476717</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>225</v>
@@ -5727,19 +5727,19 @@
         <v>245244</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>216959</v>
+        <v>216351</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>279231</v>
+        <v>277963</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06903859591972494</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06107610842730975</v>
+        <v>0.06090482579106114</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07860628847413807</v>
+        <v>0.07824941754815867</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>371</v>
@@ -5748,19 +5748,19 @@
         <v>399563</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>364996</v>
+        <v>363470</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>442021</v>
+        <v>444194</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05729758416382365</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05234056142908246</v>
+        <v>0.05212173713790288</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06338599005971463</v>
+        <v>0.06369765805964769</v>
       </c>
     </row>
     <row r="36">
@@ -5777,19 +5777,19 @@
         <v>89003</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>71323</v>
+        <v>72032</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>109471</v>
+        <v>109369</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0260150589205108</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02084739976386015</v>
+        <v>0.02105460543505911</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03199768943582595</v>
+        <v>0.03196797328996327</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>138</v>
@@ -5798,19 +5798,19 @@
         <v>153647</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>130083</v>
+        <v>130308</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>179849</v>
+        <v>180017</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04325326007852374</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03661960029674169</v>
+        <v>0.03668311070647111</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05062913647596417</v>
+        <v>0.05067647487575995</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>220</v>
@@ -5819,19 +5819,19 @@
         <v>242650</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>209784</v>
+        <v>209888</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>277562</v>
+        <v>274226</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03479615809657719</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0300831010641772</v>
+        <v>0.0300980818913331</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03980249513858219</v>
+        <v>0.03932416677519213</v>
       </c>
     </row>
     <row r="37">
@@ -5848,19 +5848,19 @@
         <v>33185</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>23106</v>
+        <v>23270</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>46276</v>
+        <v>48059</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.009699922199114773</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.006753761008047865</v>
+        <v>0.006801782559629109</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01352612265675375</v>
+        <v>0.01404734006050217</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>67</v>
@@ -5869,19 +5869,19 @@
         <v>73384</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>57420</v>
+        <v>56454</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>93292</v>
+        <v>90741</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02065833760124711</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01616416894919101</v>
+        <v>0.01589237090270076</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02626265263007996</v>
+        <v>0.02554455047412999</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>98</v>
@@ -5890,19 +5890,19 @@
         <v>106569</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>85927</v>
+        <v>85409</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>130198</v>
+        <v>127353</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01528211326282258</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01232192861365661</v>
+        <v>0.01224766248042868</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01867051891144138</v>
+        <v>0.01826241516083034</v>
       </c>
     </row>
     <row r="38">
@@ -6234,19 +6234,19 @@
         <v>259198</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>233990</v>
+        <v>234346</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>284456</v>
+        <v>285293</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3853865860340863</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3479068336830098</v>
+        <v>0.348435038343044</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4229416328345113</v>
+        <v>0.4241853470454247</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>202</v>
@@ -6255,19 +6255,19 @@
         <v>199155</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>178053</v>
+        <v>176025</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>225986</v>
+        <v>223851</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2967527743197149</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2653105521151662</v>
+        <v>0.2622880594994731</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3367331455328425</v>
+        <v>0.3335520286742917</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>452</v>
@@ -6276,19 +6276,19 @@
         <v>458353</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>422839</v>
+        <v>423586</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>492017</v>
+        <v>491218</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3411176020244657</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3146871939850365</v>
+        <v>0.315243218640476</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3661712515494351</v>
+        <v>0.3655769335705319</v>
       </c>
     </row>
     <row r="5">
@@ -6305,19 +6305,19 @@
         <v>214153</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>191942</v>
+        <v>191048</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>240205</v>
+        <v>239487</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3184115731764707</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2853878199296405</v>
+        <v>0.2840578224481011</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3571476714724189</v>
+        <v>0.35607965767126</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>208</v>
@@ -6326,19 +6326,19 @@
         <v>208975</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>183589</v>
+        <v>185252</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>231304</v>
+        <v>234692</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3113852488637771</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2735585406844688</v>
+        <v>0.2760374246006779</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3446573807129888</v>
+        <v>0.3497063403311095</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>417</v>
@@ -6347,19 +6347,19 @@
         <v>423127</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>388405</v>
+        <v>386974</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>457208</v>
+        <v>455265</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3149022099591082</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2890609941473178</v>
+        <v>0.2879955928778192</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3402656483944297</v>
+        <v>0.3388196123197456</v>
       </c>
     </row>
     <row r="6">
@@ -6376,19 +6376,19 @@
         <v>134890</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>114428</v>
+        <v>113717</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>157458</v>
+        <v>156752</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2005600419346037</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.170136764352585</v>
+        <v>0.1690795563079259</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2341156919928123</v>
+        <v>0.2330663343772646</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>167</v>
@@ -6397,19 +6397,19 @@
         <v>169476</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>147369</v>
+        <v>148688</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>192359</v>
+        <v>196828</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2525292309838391</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2195892618128026</v>
+        <v>0.2215539710350233</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2866270373796653</v>
+        <v>0.2932859593017494</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>294</v>
@@ -6418,19 +6418,19 @@
         <v>304366</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>274642</v>
+        <v>277208</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>337796</v>
+        <v>337789</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2265165381578223</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2043957836268972</v>
+        <v>0.20630513038739</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2513964649546122</v>
+        <v>0.251390815017681</v>
       </c>
     </row>
     <row r="7">
@@ -6447,19 +6447,19 @@
         <v>34390</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24416</v>
+        <v>24234</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46877</v>
+        <v>47829</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05113265371082639</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03630268564369399</v>
+        <v>0.0360324334335776</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06969900728421366</v>
+        <v>0.07111404525176353</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -6468,19 +6468,19 @@
         <v>50071</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38412</v>
+        <v>37275</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66295</v>
+        <v>65926</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07460919326298512</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05723673024630457</v>
+        <v>0.05554225932939565</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09878424487684667</v>
+        <v>0.09823320898543442</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -6489,19 +6489,19 @@
         <v>84461</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67439</v>
+        <v>69742</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103488</v>
+        <v>107205</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0628582303720773</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05018999291134815</v>
+        <v>0.05190351485613202</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07701874197854665</v>
+        <v>0.07978434401000693</v>
       </c>
     </row>
     <row r="8">
@@ -6518,19 +6518,19 @@
         <v>17845</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10306</v>
+        <v>11076</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29350</v>
+        <v>28435</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02653223987973797</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0153233036167105</v>
+        <v>0.01646850505112541</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04363927652919212</v>
+        <v>0.04227805865716542</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -6539,19 +6539,19 @@
         <v>25381</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16447</v>
+        <v>16371</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36850</v>
+        <v>36584</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0378186124890081</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02450738719335541</v>
+        <v>0.02439345692419922</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05490859505211947</v>
+        <v>0.05451248097516061</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>41</v>
@@ -6560,19 +6560,19 @@
         <v>43225</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>31768</v>
+        <v>31563</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>57847</v>
+        <v>57941</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03216932395524306</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02364243999633994</v>
+        <v>0.02348990602381557</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04305151800207558</v>
+        <v>0.04312093724592279</v>
       </c>
     </row>
     <row r="9">
@@ -6589,19 +6589,19 @@
         <v>12091</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6160</v>
+        <v>5954</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20656</v>
+        <v>20388</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01797690526427492</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009158737640486386</v>
+        <v>0.008853027153148455</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0307120234460056</v>
+        <v>0.03031411780981532</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -6610,19 +6610,19 @@
         <v>18056</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11273</v>
+        <v>10511</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>28879</v>
+        <v>28373</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02690494008067576</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01679753011203182</v>
+        <v>0.01566176338331869</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04303213957709703</v>
+        <v>0.04227745645661869</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>28</v>
@@ -6631,19 +6631,19 @@
         <v>30147</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20719</v>
+        <v>19961</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>43862</v>
+        <v>43149</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02243609553128337</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01541963684543577</v>
+        <v>0.01485528480066138</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03264301676759987</v>
+        <v>0.03211252491167474</v>
       </c>
     </row>
     <row r="10">
@@ -6735,19 +6735,19 @@
         <v>392478</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>359394</v>
+        <v>361312</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>427513</v>
+        <v>423518</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3842384273828219</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3518486555856376</v>
+        <v>0.3537266457559966</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4185381962381949</v>
+        <v>0.4146263101168208</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>286</v>
@@ -6756,19 +6756,19 @@
         <v>299000</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>268894</v>
+        <v>267777</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330643</v>
+        <v>326800</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.28669694585446</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.257830021685631</v>
+        <v>0.2567582382172557</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3170376126860114</v>
+        <v>0.3133532569905799</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>645</v>
@@ -6777,19 +6777,19 @@
         <v>691478</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>643653</v>
+        <v>646937</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>737579</v>
+        <v>736473</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.334960479205007</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3117934937362119</v>
+        <v>0.3133842242651945</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3572924437271386</v>
+        <v>0.3567563840447285</v>
       </c>
     </row>
     <row r="12">
@@ -6806,19 +6806,19 @@
         <v>357917</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>327844</v>
+        <v>326269</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>389489</v>
+        <v>388735</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3504025079573397</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3209611997550721</v>
+        <v>0.3194192349510924</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3813125073046338</v>
+        <v>0.3805736320694227</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>356</v>
@@ -6827,19 +6827,19 @@
         <v>378997</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>345913</v>
+        <v>349880</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>412199</v>
+        <v>411455</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3634020889213856</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3316798278054616</v>
+        <v>0.335483850408657</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3952380335395961</v>
+        <v>0.394525201109422</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>690</v>
@@ -6848,19 +6848,19 @@
         <v>736913</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>692132</v>
+        <v>692881</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>778171</v>
+        <v>782848</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3569698951555063</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3352775187830602</v>
+        <v>0.3356400960640722</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3769555850700047</v>
+        <v>0.3792214564835161</v>
       </c>
     </row>
     <row r="13">
@@ -6877,19 +6877,19 @@
         <v>214076</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>187197</v>
+        <v>189394</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>242924</v>
+        <v>242015</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2095816306085596</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.183267106076001</v>
+        <v>0.1854178104636538</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2378236192709068</v>
+        <v>0.2369337629705303</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>250</v>
@@ -6898,19 +6898,19 @@
         <v>268793</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>239632</v>
+        <v>243737</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>301055</v>
+        <v>298712</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2577332456616375</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2297715411345755</v>
+        <v>0.2337078354552898</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2886672290958182</v>
+        <v>0.2864206230263709</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>452</v>
@@ -6919,19 +6919,19 @@
         <v>482869</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>444766</v>
+        <v>441592</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>523843</v>
+        <v>519976</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2339078224408389</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2154503682341234</v>
+        <v>0.2139125048902643</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.253756224505754</v>
+        <v>0.2518827333070833</v>
       </c>
     </row>
     <row r="14">
@@ -6948,19 +6948,19 @@
         <v>35587</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24357</v>
+        <v>24969</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49079</v>
+        <v>49093</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0348394994420719</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02384606957458693</v>
+        <v>0.02444438592037187</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04804823123521132</v>
+        <v>0.0480623548028155</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -6969,19 +6969,19 @@
         <v>52382</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>38283</v>
+        <v>39066</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>68874</v>
+        <v>68697</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05022615684408705</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03670753633697586</v>
+        <v>0.03745818905156991</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06604027329673513</v>
+        <v>0.0658702058470646</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>80</v>
@@ -6990,19 +6990,19 @@
         <v>87968</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>70843</v>
+        <v>70608</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>109402</v>
+        <v>108362</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04261283745381644</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03431734395869098</v>
+        <v>0.03420356789349863</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05299580742470848</v>
+        <v>0.05249192146380534</v>
       </c>
     </row>
     <row r="15">
@@ -7019,19 +7019,19 @@
         <v>9524</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4601</v>
+        <v>4746</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16090</v>
+        <v>16566</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.009323923827334711</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.004504877233332776</v>
+        <v>0.004646523419929514</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01575208324173709</v>
+        <v>0.01621861364916369</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>25</v>
@@ -7040,19 +7040,19 @@
         <v>27491</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18637</v>
+        <v>18289</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>41092</v>
+        <v>39761</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.026360150049237</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01786986405375453</v>
+        <v>0.01753606464173595</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03940084906411937</v>
+        <v>0.03812458953870023</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>35</v>
@@ -7061,19 +7061,19 @@
         <v>37015</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>26439</v>
+        <v>25766</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>50715</v>
+        <v>51447</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01793062386668493</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01280757806513282</v>
+        <v>0.01248146223686169</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02456715905431276</v>
+        <v>0.02492135511561708</v>
       </c>
     </row>
     <row r="16">
@@ -7090,19 +7090,19 @@
         <v>11863</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6685</v>
+        <v>6007</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20068</v>
+        <v>22401</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01161401078187217</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006544334861368761</v>
+        <v>0.005881306742898577</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0196466212990201</v>
+        <v>0.02193076356455571</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -7111,19 +7111,19 @@
         <v>16250</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9307</v>
+        <v>9217</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27181</v>
+        <v>27352</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01558141266919287</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008924056320491416</v>
+        <v>0.008837396871353717</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02606301794459793</v>
+        <v>0.02622676051907645</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -7132,19 +7132,19 @@
         <v>28113</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18259</v>
+        <v>19003</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41907</v>
+        <v>41391</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0136183418781464</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008844676144851876</v>
+        <v>0.009205102574112493</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0203000886661958</v>
+        <v>0.02005016882936537</v>
       </c>
     </row>
     <row r="17">
@@ -7236,19 +7236,19 @@
         <v>354268</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>325024</v>
+        <v>325221</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>381438</v>
+        <v>381878</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4664174548234193</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4279156115596289</v>
+        <v>0.428175005207569</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.502188730997818</v>
+        <v>0.5027672879874905</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>300</v>
@@ -7257,19 +7257,19 @@
         <v>318416</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>287393</v>
+        <v>291732</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>345906</v>
+        <v>346953</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4068845173773856</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3672422064699573</v>
+        <v>0.3727860488585853</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4420118475278464</v>
+        <v>0.443350063015356</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>627</v>
@@ -7278,19 +7278,19 @@
         <v>672685</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>633134</v>
+        <v>632253</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>711126</v>
+        <v>712202</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4362066709282792</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4105596338703442</v>
+        <v>0.4099886566747332</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.461133825107402</v>
+        <v>0.4618317509603584</v>
       </c>
     </row>
     <row r="19">
@@ -7307,19 +7307,19 @@
         <v>229107</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>204750</v>
+        <v>203370</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>257601</v>
+        <v>256699</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3016339273246164</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2695666237045692</v>
+        <v>0.2677495088853198</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3391485559176998</v>
+        <v>0.3379614426628785</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>209</v>
@@ -7328,19 +7328,19 @@
         <v>218934</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>195925</v>
+        <v>195349</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>248548</v>
+        <v>244481</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2797626915670187</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2503609743253965</v>
+        <v>0.2496241497753828</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3176047127642628</v>
+        <v>0.3124070504690463</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>417</v>
@@ -7349,19 +7349,19 @@
         <v>448041</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>409870</v>
+        <v>412887</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>485614</v>
+        <v>485394</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2905350767498163</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2657826923315069</v>
+        <v>0.2677390064361667</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3148992799253127</v>
+        <v>0.3147569334385265</v>
       </c>
     </row>
     <row r="20">
@@ -7378,19 +7378,19 @@
         <v>124138</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>104107</v>
+        <v>104004</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>148093</v>
+        <v>148053</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1634357988325515</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1370642994821614</v>
+        <v>0.1369284688214515</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1949735790701394</v>
+        <v>0.1949218876287766</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>148</v>
@@ -7399,19 +7399,19 @@
         <v>160116</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>137642</v>
+        <v>137193</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>182119</v>
+        <v>182806</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2046029159951868</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1758837224063797</v>
+        <v>0.1753105248553003</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2327182094734045</v>
+        <v>0.2335964929397969</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>262</v>
@@ -7420,19 +7420,19 @@
         <v>284254</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>255171</v>
+        <v>256258</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>316654</v>
+        <v>316521</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1843266020339505</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1654672854353222</v>
+        <v>0.1661723462768908</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2053363096100984</v>
+        <v>0.2052498304055765</v>
       </c>
     </row>
     <row r="21">
@@ -7449,19 +7449,19 @@
         <v>21902</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13967</v>
+        <v>13728</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>34431</v>
+        <v>32255</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02883582336579314</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01838862914432108</v>
+        <v>0.01807318756356225</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04533097008774026</v>
+        <v>0.04246618103510853</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>38</v>
@@ -7470,19 +7470,19 @@
         <v>41798</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>29866</v>
+        <v>30877</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>55672</v>
+        <v>56607</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05341124135756315</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03816452354581296</v>
+        <v>0.03945574159272467</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07113993289708534</v>
+        <v>0.07233447838078913</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>58</v>
@@ -7491,19 +7491,19 @@
         <v>63700</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>49094</v>
+        <v>48334</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>82539</v>
+        <v>80492</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04130694731722124</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0318355141555814</v>
+        <v>0.0313424150883152</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05352293085449667</v>
+        <v>0.05219578756821536</v>
       </c>
     </row>
     <row r="22">
@@ -7520,19 +7520,19 @@
         <v>14669</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7905</v>
+        <v>8022</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24029</v>
+        <v>25244</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01931325327473265</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01040787966705542</v>
+        <v>0.01056132968964335</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03163520088548289</v>
+        <v>0.03323513617639187</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -7541,19 +7541,19 @@
         <v>31191</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21952</v>
+        <v>21218</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44986</v>
+        <v>44131</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03985739761086617</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02805049551555727</v>
+        <v>0.02711353402585657</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05748433675861974</v>
+        <v>0.05639261069329324</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -7562,19 +7562,19 @@
         <v>45861</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>33810</v>
+        <v>32518</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60575</v>
+        <v>62375</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02973865359051778</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02192426593880488</v>
+        <v>0.0210862443580193</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0392802787652488</v>
+        <v>0.04044741817079951</v>
       </c>
     </row>
     <row r="23">
@@ -7591,19 +7591,19 @@
         <v>15467</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8156</v>
+        <v>8631</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24955</v>
+        <v>25670</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02036374237888695</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01073779910906519</v>
+        <v>0.01136265632371994</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03285449637730362</v>
+        <v>0.03379641096471488</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -7612,19 +7612,19 @@
         <v>12115</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6524</v>
+        <v>6410</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20853</v>
+        <v>20987</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0154812360919796</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.008336150952741065</v>
+        <v>0.008190417191146909</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02664618276278817</v>
+        <v>0.02681774197551237</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>25</v>
@@ -7633,19 +7633,19 @@
         <v>27583</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>18345</v>
+        <v>18684</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>40306</v>
+        <v>40765</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01788604938021487</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01189614886444827</v>
+        <v>0.0121157238915082</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02613691537104717</v>
+        <v>0.02643427762576411</v>
       </c>
     </row>
     <row r="24">
@@ -7737,19 +7737,19 @@
         <v>354322</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>326624</v>
+        <v>324798</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>381890</v>
+        <v>382589</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3787448395832799</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3491380919531941</v>
+        <v>0.3471861014518896</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4082129276132206</v>
+        <v>0.4089605469363805</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>298</v>
@@ -7758,19 +7758,19 @@
         <v>318887</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>286921</v>
+        <v>289550</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>351174</v>
+        <v>352297</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3063616399991865</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.275651351022036</v>
+        <v>0.2781772659473419</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3373800946178298</v>
+        <v>0.338459330081388</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>652</v>
@@ -7779,19 +7779,19 @@
         <v>673208</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>629479</v>
+        <v>632367</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>712771</v>
+        <v>717289</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3406237585198604</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3184979061024897</v>
+        <v>0.3199592512530771</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3606410785050959</v>
+        <v>0.3629274177452216</v>
       </c>
     </row>
     <row r="26">
@@ -7808,19 +7808,19 @@
         <v>315128</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>286467</v>
+        <v>284904</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>345953</v>
+        <v>342350</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3368498254985013</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3062129465550933</v>
+        <v>0.3045418340284912</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3697991947030888</v>
+        <v>0.3659480421271595</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>296</v>
@@ -7829,19 +7829,19 @@
         <v>317340</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>288664</v>
+        <v>288486</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>351443</v>
+        <v>351556</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3048750886403727</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2773254105642456</v>
+        <v>0.2771551787394398</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.337638556565628</v>
+        <v>0.3377476338237337</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>612</v>
@@ -7850,19 +7850,19 @@
         <v>632468</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>591309</v>
+        <v>593351</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>675041</v>
+        <v>675903</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3200101231538416</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2991851170610689</v>
+        <v>0.3002182097547355</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.341550757816592</v>
+        <v>0.3419870113791351</v>
       </c>
     </row>
     <row r="27">
@@ -7879,19 +7879,19 @@
         <v>189319</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>165330</v>
+        <v>166161</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>216671</v>
+        <v>215561</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2023685708027333</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1767265028709221</v>
+        <v>0.1776143745802568</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2316062307320699</v>
+        <v>0.2304191049422465</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>238</v>
@@ -7900,19 +7900,19 @@
         <v>264048</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>232823</v>
+        <v>234202</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>292740</v>
+        <v>293411</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2536767169829044</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2236781493514281</v>
+        <v>0.2250034132218672</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2812417912652851</v>
+        <v>0.2818867937991979</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>423</v>
@@ -7921,19 +7921,19 @@
         <v>453367</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>416343</v>
+        <v>416027</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>493665</v>
+        <v>492096</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2293903384364744</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2106575503744479</v>
+        <v>0.2104977199560326</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2497800212678295</v>
+        <v>0.2489862628762607</v>
       </c>
     </row>
     <row r="28">
@@ -7950,19 +7950,19 @@
         <v>50365</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36826</v>
+        <v>36675</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>63534</v>
+        <v>65867</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05383700558572123</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03936421205556904</v>
+        <v>0.03920274132125139</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06791312524166832</v>
+        <v>0.07040759836745071</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>67</v>
@@ -7971,19 +7971,19 @@
         <v>75746</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>59768</v>
+        <v>58757</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>97766</v>
+        <v>94262</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07277077531746236</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05742037145236899</v>
+        <v>0.05644866422456014</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09392588195088247</v>
+        <v>0.09056002832462604</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>116</v>
@@ -7992,19 +7992,19 @@
         <v>126111</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>105336</v>
+        <v>106836</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>149847</v>
+        <v>149436</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06380859809513049</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0532967470640816</v>
+        <v>0.05405568327675893</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07581839804111794</v>
+        <v>0.07561011801975713</v>
       </c>
     </row>
     <row r="29">
@@ -8021,19 +8021,19 @@
         <v>17029</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10202</v>
+        <v>9766</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>26748</v>
+        <v>26533</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01820233642385958</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01090479081180462</v>
+        <v>0.01043949437552547</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02859141379780937</v>
+        <v>0.02836171868913739</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>40</v>
@@ -8042,19 +8042,19 @@
         <v>45431</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>32552</v>
+        <v>32226</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>60931</v>
+        <v>60969</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04364635682630329</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03127388055995379</v>
+        <v>0.03095987682448829</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05853743876477174</v>
+        <v>0.05857384847589932</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>57</v>
@@ -8063,19 +8063,19 @@
         <v>62459</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>47424</v>
+        <v>48321</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>80490</v>
+        <v>80385</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0316025946317602</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0239950698471233</v>
+        <v>0.02444877637301416</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04072564628176308</v>
+        <v>0.04067270040994169</v>
       </c>
     </row>
     <row r="30">
@@ -8092,19 +8092,19 @@
         <v>9353</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4392</v>
+        <v>4222</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17921</v>
+        <v>16989</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.009997422105904777</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004695169215783305</v>
+        <v>0.004513054442488501</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01915643631712807</v>
+        <v>0.01816021713371922</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -8113,19 +8113,19 @@
         <v>19433</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12094</v>
+        <v>12056</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>30105</v>
+        <v>31075</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01866942223377071</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01161920064201685</v>
+        <v>0.01158207486870651</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0289229578646327</v>
+        <v>0.02985458570734922</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>26</v>
@@ -8134,19 +8134,19 @@
         <v>28785</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19006</v>
+        <v>18675</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>42163</v>
+        <v>41603</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01456458716293287</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.009616270759892059</v>
+        <v>0.009448961664756051</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02133328976722307</v>
+        <v>0.02104976437977846</v>
       </c>
     </row>
     <row r="31">
@@ -8238,19 +8238,19 @@
         <v>1360266</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1305890</v>
+        <v>1301923</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1420530</v>
+        <v>1422245</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4013676119995085</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.385323174395828</v>
+        <v>0.3841526762201429</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4191493424971338</v>
+        <v>0.4196554270544761</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1086</v>
@@ -8259,19 +8259,19 @@
         <v>1135458</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1077047</v>
+        <v>1084236</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1191899</v>
+        <v>1194553</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3209791341726956</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3044671173187255</v>
+        <v>0.3064995368064812</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3369343682091603</v>
+        <v>0.3376845683513753</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2376</v>
@@ -8280,19 +8280,19 @@
         <v>2495724</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2420781</v>
+        <v>2414082</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2577565</v>
+        <v>2571955</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3603122059125591</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3494925907548203</v>
+        <v>0.3485254234211914</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3721277320095305</v>
+        <v>0.3713178688218001</v>
       </c>
     </row>
     <row r="33">
@@ -8309,19 +8309,19 @@
         <v>1116304</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1066425</v>
+        <v>1061083</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1172598</v>
+        <v>1175825</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.3293829117108688</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3146653605009594</v>
+        <v>0.3130891049529749</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3459931892184769</v>
+        <v>0.3469454586451384</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1069</v>
@@ -8330,19 +8330,19 @@
         <v>1124245</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1069078</v>
+        <v>1065403</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1179890</v>
+        <v>1175933</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.317809543140549</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3022143837868139</v>
+        <v>0.3011754862256607</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.333539484198461</v>
+        <v>0.3324211246284658</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2136</v>
@@ -8351,19 +8351,19 @@
         <v>2240550</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2161903</v>
+        <v>2156417</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>2316202</v>
+        <v>2318979</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.3234722469079842</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.312117939434302</v>
+        <v>0.3113259371899671</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3343942691600404</v>
+        <v>0.3347952434920466</v>
       </c>
     </row>
     <row r="34">
@@ -8380,19 +8380,19 @@
         <v>662423</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>612288</v>
+        <v>617124</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>709499</v>
+        <v>711469</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1954581087603875</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1806651233381646</v>
+        <v>0.1820920137745833</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2093485488175857</v>
+        <v>0.2099298574066087</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>803</v>
@@ -8401,19 +8401,19 @@
         <v>862433</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>808373</v>
+        <v>811257</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>911940</v>
+        <v>911761</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2437987189638174</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2285166516833915</v>
+        <v>0.229331755217355</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2577936046389789</v>
+        <v>0.257743131707914</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1431</v>
@@ -8422,19 +8422,19 @@
         <v>1524856</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1455850</v>
+        <v>1447564</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1594938</v>
+        <v>1589502</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2201462660192974</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.210183695895561</v>
+        <v>0.2089875342004996</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2302640599958314</v>
+        <v>0.2294793738502058</v>
       </c>
     </row>
     <row r="35">
@@ -8451,19 +8451,19 @@
         <v>142244</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>119126</v>
+        <v>119728</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>167254</v>
+        <v>166406</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04197140448833715</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03515010186595363</v>
+        <v>0.03532768888021069</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04935083941108966</v>
+        <v>0.04910071724466619</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>197</v>
@@ -8472,19 +8472,19 @@
         <v>219997</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>191741</v>
+        <v>191100</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>253395</v>
+        <v>253420</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06219022262777144</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05420260884433448</v>
+        <v>0.05402144024518259</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07163155540331038</v>
+        <v>0.07163858719429185</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>336</v>
@@ -8493,19 +8493,19 @@
         <v>362241</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>325988</v>
+        <v>325932</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>401984</v>
+        <v>402668</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05229740905706384</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04706343783600651</v>
+        <v>0.04705535125796551</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05803514862358739</v>
+        <v>0.05813394911729578</v>
       </c>
     </row>
     <row r="36">
@@ -8522,19 +8522,19 @@
         <v>59067</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>44377</v>
+        <v>45096</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>75527</v>
+        <v>75391</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01742850031241674</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01309425102331762</v>
+        <v>0.01330623097993078</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02228532560446952</v>
+        <v>0.02224526458077188</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>117</v>
@@ -8543,19 +8543,19 @@
         <v>129494</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>108898</v>
+        <v>107997</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>156466</v>
+        <v>153640</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03660625771151092</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03078419012179897</v>
+        <v>0.03052922729309349</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0442307721898433</v>
+        <v>0.04343203141918556</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>174</v>
@@ -8564,19 +8564,19 @@
         <v>188560</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>165262</v>
+        <v>161590</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>217414</v>
+        <v>218164</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02722282207520793</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02385914327140422</v>
+        <v>0.02332898555979572</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03138843751008195</v>
+        <v>0.03149679655553085</v>
       </c>
     </row>
     <row r="37">
@@ -8593,19 +8593,19 @@
         <v>48774</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>35383</v>
+        <v>36647</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>66110</v>
+        <v>65737</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0143914627284812</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01044034504398094</v>
+        <v>0.01081339381544228</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01950681192221126</v>
+        <v>0.01939683831874123</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>59</v>
@@ -8614,19 +8614,19 @@
         <v>65854</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>51046</v>
+        <v>50248</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>85581</v>
+        <v>83634</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01861612338365562</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01443015965414182</v>
+        <v>0.01420451360065304</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02419268581201263</v>
+        <v>0.02364220374937448</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>104</v>
@@ -8635,19 +8635,19 @@
         <v>114628</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>95553</v>
+        <v>91192</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>141065</v>
+        <v>138557</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01654905002788759</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01379522553224804</v>
+        <v>0.01316555259961613</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02036584598370649</v>
+        <v>0.02000372546583754</v>
       </c>
     </row>
     <row r="38">
@@ -8979,19 +8979,19 @@
         <v>341803</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>312943</v>
+        <v>314881</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>370377</v>
+        <v>372875</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.495938005792479</v>
+        <v>0.4959380057924789</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4540630823980754</v>
+        <v>0.4568746923747007</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5373966758268526</v>
+        <v>0.5410213296632329</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>447</v>
@@ -9000,19 +9000,19 @@
         <v>299258</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>277185</v>
+        <v>277964</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>322516</v>
+        <v>323908</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4092435826944855</v>
+        <v>0.4092435826944856</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3790584411367266</v>
+        <v>0.3801235450588595</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4410505545297951</v>
+        <v>0.4429535597076865</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>784</v>
@@ -9021,19 +9021,19 @@
         <v>641061</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>605780</v>
+        <v>604104</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>676558</v>
+        <v>678091</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4513078926086803</v>
+        <v>0.4513078926086804</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4264698149344743</v>
+        <v>0.4252900654296923</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4762977822070408</v>
+        <v>0.4773767501128237</v>
       </c>
     </row>
     <row r="5">
@@ -9050,19 +9050,19 @@
         <v>148333</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>124900</v>
+        <v>126707</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>173884</v>
+        <v>171324</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.215222581583458</v>
+        <v>0.2152225815834579</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1812229809051705</v>
+        <v>0.183845185953198</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2522962396710351</v>
+        <v>0.2485818256799323</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>311</v>
@@ -9071,19 +9071,19 @@
         <v>183223</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>164718</v>
+        <v>164671</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>203332</v>
+        <v>203052</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2505626079515229</v>
+        <v>0.250562607951523</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2252566162611902</v>
+        <v>0.225192407207613</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2780627966930976</v>
+        <v>0.2776793172473035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>462</v>
@@ -9092,19 +9092,19 @@
         <v>331556</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>302514</v>
+        <v>302656</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>364499</v>
+        <v>363576</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2334155554837788</v>
+        <v>0.2334155554837789</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2129703157309887</v>
+        <v>0.2130702689773655</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2566077579699672</v>
+        <v>0.2559578971405929</v>
       </c>
     </row>
     <row r="6">
@@ -9121,19 +9121,19 @@
         <v>130980</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>113369</v>
+        <v>111444</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>151726</v>
+        <v>153833</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1900449978243364</v>
+        <v>0.1900449978243363</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1644927383521302</v>
+        <v>0.1616987411697108</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2201463690050559</v>
+        <v>0.2232034077451145</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>309</v>
@@ -9142,19 +9142,19 @@
         <v>157955</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>141707</v>
+        <v>139372</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>174829</v>
+        <v>175648</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2160086694648205</v>
+        <v>0.2160086694648206</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1937880373884692</v>
+        <v>0.1905945929642746</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2390833666361642</v>
+        <v>0.2402032698594534</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>474</v>
@@ -9163,19 +9163,19 @@
         <v>288936</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>265193</v>
+        <v>263220</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>316898</v>
+        <v>317035</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2034110433273096</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1866962888759567</v>
+        <v>0.1853073373335576</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2230969395251357</v>
+        <v>0.2231932636741908</v>
       </c>
     </row>
     <row r="7">
@@ -9192,19 +9192,19 @@
         <v>29625</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21089</v>
+        <v>19729</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40449</v>
+        <v>39261</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04298365422952695</v>
+        <v>0.04298365422952694</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03059840761617411</v>
+        <v>0.02862507337751825</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05868995068132124</v>
+        <v>0.0569654021987929</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -9213,19 +9213,19 @@
         <v>51899</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41798</v>
+        <v>42513</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61780</v>
+        <v>64182</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07097312362745953</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05715994451707612</v>
+        <v>0.05813746165407468</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08448644867371104</v>
+        <v>0.0877707815527399</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -9234,19 +9234,19 @@
         <v>81523</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67958</v>
+        <v>68503</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97379</v>
+        <v>96974</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05739257630946537</v>
+        <v>0.05739257630946539</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04784273927957836</v>
+        <v>0.04822587210167985</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06855462129700947</v>
+        <v>0.06826987908503511</v>
       </c>
     </row>
     <row r="8">
@@ -9263,19 +9263,19 @@
         <v>21068</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12893</v>
+        <v>13032</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33608</v>
+        <v>32829</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03056848498096431</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01870652487761867</v>
+        <v>0.0189090487143398</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04876384551394743</v>
+        <v>0.04763289458327214</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>51</v>
@@ -9284,19 +9284,19 @@
         <v>27898</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20689</v>
+        <v>21033</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36348</v>
+        <v>37295</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03815076168213304</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02829312751477958</v>
+        <v>0.02876385318788908</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04970686460621543</v>
+        <v>0.05100228229546343</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>71</v>
@@ -9305,19 +9305,19 @@
         <v>48966</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37942</v>
+        <v>37856</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>64862</v>
+        <v>63732</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03447182564892791</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02671117669633756</v>
+        <v>0.02665040186501058</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.045662826025644</v>
+        <v>0.04486755295528695</v>
       </c>
     </row>
     <row r="9">
@@ -9334,19 +9334,19 @@
         <v>17397</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10512</v>
+        <v>10267</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28129</v>
+        <v>27631</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02524227558923539</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01525224626679853</v>
+        <v>0.01489626643759243</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04081327913081113</v>
+        <v>0.04009131039776637</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -9355,19 +9355,19 @@
         <v>11013</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6702</v>
+        <v>6370</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17065</v>
+        <v>16839</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.01506125457957843</v>
+        <v>0.01506125457957844</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009164602521768553</v>
+        <v>0.008711718702473904</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02333622064162124</v>
+        <v>0.02302785388862362</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>36</v>
@@ -9376,19 +9376,19 @@
         <v>28411</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20166</v>
+        <v>20125</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40324</v>
+        <v>40381</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.020001106621838</v>
+        <v>0.02000110662183801</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01419685933256271</v>
+        <v>0.01416835071706719</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02838804136844671</v>
+        <v>0.02842818024511046</v>
       </c>
     </row>
     <row r="10">
@@ -9480,19 +9480,19 @@
         <v>459825</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>422392</v>
+        <v>426377</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>497334</v>
+        <v>496226</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4385802998942728</v>
+        <v>0.4385802998942729</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4028769654626732</v>
+        <v>0.4066773954754515</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4743557202640512</v>
+        <v>0.4732995814934693</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>459</v>
@@ -9501,19 +9501,19 @@
         <v>360399</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>331908</v>
+        <v>332081</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>389264</v>
+        <v>389189</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3368556921293913</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3102263222447124</v>
+        <v>0.3103877895891445</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3638354131177863</v>
+        <v>0.3637649622197829</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>844</v>
@@ -9522,19 +9522,19 @@
         <v>820224</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>773323</v>
+        <v>773226</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>865400</v>
+        <v>868431</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3872029361082898</v>
+        <v>0.3872029361082897</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3650624738511173</v>
+        <v>0.3650166712435788</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4085289734019684</v>
+        <v>0.4099601501326972</v>
       </c>
     </row>
     <row r="12">
@@ -9551,19 +9551,19 @@
         <v>306967</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>274736</v>
+        <v>274905</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>340920</v>
+        <v>341054</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2927843989322725</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2620421898228208</v>
+        <v>0.262203915416031</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3251689441116719</v>
+        <v>0.3252964395078646</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>411</v>
@@ -9572,19 +9572,19 @@
         <v>289297</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>266458</v>
+        <v>262396</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>315710</v>
+        <v>314959</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2703989423416259</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2490518106155863</v>
+        <v>0.2452551393655687</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2950863625098272</v>
+        <v>0.2943837365340744</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>684</v>
@@ -9593,19 +9593,19 @@
         <v>596264</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>553551</v>
+        <v>559347</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>640215</v>
+        <v>643299</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2814783268613804</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2613149051373511</v>
+        <v>0.264050607471308</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3022261840238432</v>
+        <v>0.303682061415782</v>
       </c>
     </row>
     <row r="13">
@@ -9622,19 +9622,19 @@
         <v>185275</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>162061</v>
+        <v>160485</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>212705</v>
+        <v>212340</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1767151525783815</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1545734384736713</v>
+        <v>0.1530698184825133</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2028779115368128</v>
+        <v>0.2025298793466815</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>397</v>
@@ -9643,19 +9643,19 @@
         <v>256139</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>233296</v>
+        <v>231323</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>281363</v>
+        <v>281220</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2394063633693122</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2180561619249825</v>
+        <v>0.2162113148657187</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2629827444389021</v>
+        <v>0.2628496425978715</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>596</v>
@@ -9664,19 +9664,19 @@
         <v>441414</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>409676</v>
+        <v>402926</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>482753</v>
+        <v>473542</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.208378180962172</v>
+        <v>0.2083781809621719</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1933957619174168</v>
+        <v>0.1902091300275006</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2278928945628541</v>
+        <v>0.2235450236985278</v>
       </c>
     </row>
     <row r="14">
@@ -9693,19 +9693,19 @@
         <v>56326</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43657</v>
+        <v>42928</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>74596</v>
+        <v>72715</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05372336712287917</v>
+        <v>0.05372336712287916</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04164033447835107</v>
+        <v>0.0409447865361135</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07114937024519127</v>
+        <v>0.06935579658037254</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>131</v>
@@ -9714,19 +9714,19 @@
         <v>87918</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>73643</v>
+        <v>73485</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>105465</v>
+        <v>104942</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.08217455801491667</v>
+        <v>0.08217455801491669</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06883217897212612</v>
+        <v>0.06868498961702861</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09857575453180364</v>
+        <v>0.09808660603732959</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>194</v>
@@ -9735,19 +9735,19 @@
         <v>144244</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>124081</v>
+        <v>124973</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>169468</v>
+        <v>168187</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06809301883963222</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05857475563061579</v>
+        <v>0.05899613056445584</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0800007165354774</v>
+        <v>0.07939605236461433</v>
       </c>
     </row>
     <row r="15">
@@ -9764,19 +9764,19 @@
         <v>24572</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15815</v>
+        <v>16307</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>35305</v>
+        <v>35906</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02343693914718379</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01508401841653337</v>
+        <v>0.01555336856330858</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0336734040400118</v>
+        <v>0.03424697159116959</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>81</v>
@@ -9785,19 +9785,19 @@
         <v>52679</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>41929</v>
+        <v>41928</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>65002</v>
+        <v>65251</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.04923797054260944</v>
+        <v>0.04923797054260945</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03918954699389843</v>
+        <v>0.03918910657160059</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0607554763415365</v>
+        <v>0.06098856410023455</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>109</v>
@@ -9806,19 +9806,19 @@
         <v>77251</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>62739</v>
+        <v>62745</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>93058</v>
+        <v>93707</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03646809262304895</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02961726359878286</v>
+        <v>0.02962017873452165</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0439300498424415</v>
+        <v>0.04423633477575807</v>
       </c>
     </row>
     <row r="16">
@@ -9835,19 +9835,19 @@
         <v>15475</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8542</v>
+        <v>8956</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24520</v>
+        <v>25270</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01475984232501009</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008147462542576193</v>
+        <v>0.008542528234679363</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02338721816276015</v>
+        <v>0.02410266858200191</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -9856,19 +9856,19 @@
         <v>23459</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16004</v>
+        <v>16245</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31894</v>
+        <v>32029</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02192647360214446</v>
+        <v>0.02192647360214447</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01495831662244403</v>
+        <v>0.01518405048718888</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02981083532863338</v>
+        <v>0.02993643271912525</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -9877,19 +9877,19 @@
         <v>38934</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29266</v>
+        <v>29283</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51034</v>
+        <v>53145</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01837944460547671</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0138157745231368</v>
+        <v>0.01382372462848611</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02409146774686547</v>
+        <v>0.02508814103260374</v>
       </c>
     </row>
     <row r="17">
@@ -9981,19 +9981,19 @@
         <v>383146</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>350854</v>
+        <v>351805</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>417390</v>
+        <v>415380</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4782030884969738</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4378996707514659</v>
+        <v>0.4390870419223326</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5209426920150275</v>
+        <v>0.5184344601357137</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>427</v>
@@ -10002,19 +10002,19 @@
         <v>342805</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>317989</v>
+        <v>317057</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>370200</v>
+        <v>369313</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4224147536683164</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.391836550778301</v>
+        <v>0.3906871556949982</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4561725731674037</v>
+        <v>0.4550795565718281</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>735</v>
@@ -10023,19 +10023,19 @@
         <v>725951</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>681002</v>
+        <v>685334</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>768393</v>
+        <v>772376</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4501304860184271</v>
+        <v>0.4501304860184273</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4222595205012561</v>
+        <v>0.4249459655856713</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4764469288216792</v>
+        <v>0.4789166856791548</v>
       </c>
     </row>
     <row r="19">
@@ -10052,19 +10052,19 @@
         <v>202808</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>174759</v>
+        <v>175183</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>232796</v>
+        <v>234462</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2531239867971026</v>
+        <v>0.2531239867971025</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2181164054779741</v>
+        <v>0.2186453712201278</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2905524058174353</v>
+        <v>0.2926308566551551</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>257</v>
@@ -10073,19 +10073,19 @@
         <v>196804</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>175339</v>
+        <v>177061</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>219975</v>
+        <v>219660</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.242508148165211</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2160576693131514</v>
+        <v>0.2181802686605131</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2710594688437723</v>
+        <v>0.2706718617919495</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>426</v>
@@ -10094,19 +10094,19 @@
         <v>399612</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>364282</v>
+        <v>367937</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>437406</v>
+        <v>439659</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2477821134681211</v>
+        <v>0.2477821134681212</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2258753422270377</v>
+        <v>0.228141472271699</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2712162552216805</v>
+        <v>0.2726137127332575</v>
       </c>
     </row>
     <row r="20">
@@ -10123,19 +10123,19 @@
         <v>128775</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>109376</v>
+        <v>107822</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>150604</v>
+        <v>152712</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1607237636038287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1365117141500123</v>
+        <v>0.1345717608346652</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1879682563930651</v>
+        <v>0.1905988992105398</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>231</v>
@@ -10144,19 +10144,19 @@
         <v>171096</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>151727</v>
+        <v>149823</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>193509</v>
+        <v>191119</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2108302743874421</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.186962313013319</v>
+        <v>0.1846169440820165</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2384477095336308</v>
+        <v>0.2355028170800641</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>351</v>
@@ -10165,19 +10165,19 @@
         <v>299871</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>270571</v>
+        <v>268442</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>333398</v>
+        <v>328978</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1859372811453638</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1677690849676532</v>
+        <v>0.166449346318531</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2067255820208541</v>
+        <v>0.2039849430916347</v>
       </c>
     </row>
     <row r="21">
@@ -10194,19 +10194,19 @@
         <v>47540</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>35545</v>
+        <v>35479</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>67096</v>
+        <v>67945</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05933437591454122</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04436370998608422</v>
+        <v>0.0442806453051118</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0837420028576852</v>
+        <v>0.08480239189708623</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>66</v>
@@ -10215,19 +10215,19 @@
         <v>50157</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>39843</v>
+        <v>38149</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>66002</v>
+        <v>63729</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06180509011887882</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04909561683869452</v>
+        <v>0.04700822821410364</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08133001881793535</v>
+        <v>0.07852895588179058</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>109</v>
@@ -10236,19 +10236,19 @@
         <v>97697</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>79139</v>
+        <v>80361</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>117641</v>
+        <v>121360</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.06057763542227686</v>
+        <v>0.06057763542227688</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04907078467315332</v>
+        <v>0.04982839898222503</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07294385201504797</v>
+        <v>0.07525013894844015</v>
       </c>
     </row>
     <row r="22">
@@ -10265,19 +10265,19 @@
         <v>25969</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16626</v>
+        <v>16598</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43851</v>
+        <v>42106</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03241207340990009</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02075128631406669</v>
+        <v>0.02071542877411189</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05473018136959017</v>
+        <v>0.05255193904785261</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -10286,19 +10286,19 @@
         <v>23404</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15771</v>
+        <v>16832</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33208</v>
+        <v>33756</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02883892552028912</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01943340401831152</v>
+        <v>0.02074062917263029</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04092003266759533</v>
+        <v>0.04159475796082009</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>53</v>
@@ -10307,19 +10307,19 @@
         <v>49373</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>35922</v>
+        <v>35906</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66040</v>
+        <v>67275</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03061407100294205</v>
+        <v>0.03061407100294206</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02227364919870936</v>
+        <v>0.02226348496248721</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04094841848519492</v>
+        <v>0.04171436397189513</v>
       </c>
     </row>
     <row r="23">
@@ -10336,19 +10336,19 @@
         <v>12982</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7060</v>
+        <v>7077</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21875</v>
+        <v>22183</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.01620271177765348</v>
+        <v>0.01620271177765347</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008811402276880542</v>
+        <v>0.008832821473549246</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02730271654743986</v>
+        <v>0.02768659244265366</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>34</v>
@@ -10357,19 +10357,19 @@
         <v>27270</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19132</v>
+        <v>18117</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>38875</v>
+        <v>37791</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03360280813986261</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02357466865366479</v>
+        <v>0.0223242147057932</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04790303071364723</v>
+        <v>0.04656773221233514</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>47</v>
@@ -10378,19 +10378,19 @@
         <v>40252</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>29367</v>
+        <v>29032</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>54360</v>
+        <v>55020</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.02495841294286887</v>
+        <v>0.02495841294286888</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01820919190815484</v>
+        <v>0.01800119172221242</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03370652771125188</v>
+        <v>0.03411541803310713</v>
       </c>
     </row>
     <row r="24">
@@ -10482,19 +10482,19 @@
         <v>440013</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>409014</v>
+        <v>406449</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>472796</v>
+        <v>475349</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4444296614352599</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4131193224026355</v>
+        <v>0.410528404724147</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4775419296051677</v>
+        <v>0.4801208096212175</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>529</v>
@@ -10503,19 +10503,19 @@
         <v>380203</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>351722</v>
+        <v>351246</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>410847</v>
+        <v>409962</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3397579644879193</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3143067272924862</v>
+        <v>0.3138815137213106</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3671422357269122</v>
+        <v>0.3663513718125351</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>948</v>
@@ -10524,19 +10524,19 @@
         <v>820216</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>777613</v>
+        <v>777674</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>862745</v>
+        <v>865200</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3888932903834036</v>
+        <v>0.3888932903834037</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3686933056828717</v>
+        <v>0.3687223419452439</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.409057598621494</v>
+        <v>0.4102215634851835</v>
       </c>
     </row>
     <row r="26">
@@ -10553,19 +10553,19 @@
         <v>231867</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>204415</v>
+        <v>206924</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>259395</v>
+        <v>260885</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2341940074515975</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2064672151978346</v>
+        <v>0.20900154757348</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2619989362188853</v>
+        <v>0.2635039867602607</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>360</v>
@@ -10574,19 +10574,19 @@
         <v>269853</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>243567</v>
+        <v>246298</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>295749</v>
+        <v>298492</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2411462893373834</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2176572880696447</v>
+        <v>0.2200974129221596</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2642875177016617</v>
+        <v>0.2667392149095097</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>590</v>
@@ -10595,19 +10595,19 @@
         <v>501719</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>463607</v>
+        <v>462192</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>543281</v>
+        <v>541187</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2378827267303186</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.219812328412134</v>
+        <v>0.2191413804555808</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2575885120137544</v>
+        <v>0.2565955156610841</v>
       </c>
     </row>
     <row r="27">
@@ -10624,19 +10624,19 @@
         <v>196965</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>172398</v>
+        <v>170509</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>224862</v>
+        <v>223262</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1989424927589907</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1741283847909256</v>
+        <v>0.1722206139870585</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2271186083795318</v>
+        <v>0.2255031378039323</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>399</v>
@@ -10645,19 +10645,19 @@
         <v>278883</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>253003</v>
+        <v>252177</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>306493</v>
+        <v>305494</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2492160271964833</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2260891897578116</v>
+        <v>0.2253508901628953</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2738889331497185</v>
+        <v>0.2729960916427323</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>620</v>
@@ -10666,19 +10666,19 @@
         <v>475849</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>443457</v>
+        <v>441758</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>517859</v>
+        <v>513418</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2256164623614277</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2102582736978758</v>
+        <v>0.2094529040590637</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2455350295228419</v>
+        <v>0.2434294302971129</v>
       </c>
     </row>
     <row r="28">
@@ -10695,19 +10695,19 @@
         <v>64298</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>49662</v>
+        <v>49745</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>79409</v>
+        <v>79653</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06494291302328938</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05016078966605602</v>
+        <v>0.0502446690647849</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08020623490615407</v>
+        <v>0.08045239152209667</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>144</v>
@@ -10716,19 +10716,19 @@
         <v>100459</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>83478</v>
+        <v>84878</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>118349</v>
+        <v>118974</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.08977276275330158</v>
+        <v>0.08977276275330157</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07459757455873946</v>
+        <v>0.07584929200962168</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1057589759744778</v>
+        <v>0.1063179597991874</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>220</v>
@@ -10737,19 +10737,19 @@
         <v>164757</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>143462</v>
+        <v>144503</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>190566</v>
+        <v>190209</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07811705453416536</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06802057475650719</v>
+        <v>0.06851396592054632</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09035389720405111</v>
+        <v>0.0901845519765733</v>
       </c>
     </row>
     <row r="29">
@@ -10766,19 +10766,19 @@
         <v>38540</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26868</v>
+        <v>26191</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>57024</v>
+        <v>54016</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03892721313155183</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02713795175287703</v>
+        <v>0.02645411362805289</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05759627111088444</v>
+        <v>0.05455788249163201</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>99</v>
@@ -10787,19 +10787,19 @@
         <v>69239</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>56482</v>
+        <v>56070</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>85548</v>
+        <v>85072</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06187339350116803</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05047357784759615</v>
+        <v>0.05010534729052726</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07644749041770457</v>
+        <v>0.07602187071175986</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>138</v>
@@ -10808,19 +10808,19 @@
         <v>107779</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>88926</v>
+        <v>89982</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>128671</v>
+        <v>130621</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05110192343428954</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04216283277127535</v>
+        <v>0.04266351377046126</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06100749370158382</v>
+        <v>0.06193189130589721</v>
       </c>
     </row>
     <row r="30">
@@ -10837,19 +10837,19 @@
         <v>18379</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11606</v>
+        <v>11909</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27823</v>
+        <v>28508</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01856371219931071</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0117226455661799</v>
+        <v>0.01202875914150384</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02810237531480233</v>
+        <v>0.02879452251978508</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>31</v>
@@ -10858,19 +10858,19 @@
         <v>20404</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>14303</v>
+        <v>14358</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>28592</v>
+        <v>29486</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01823356272374447</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01278145656062201</v>
+        <v>0.01283042585044131</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02555030447827342</v>
+        <v>0.02634957640725902</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>52</v>
@@ -10879,19 +10879,19 @@
         <v>38783</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>29559</v>
+        <v>29382</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>50419</v>
+        <v>50608</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.01838854255639524</v>
+        <v>0.01838854255639523</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01401499991837382</v>
+        <v>0.01393126096778872</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02390548732788987</v>
+        <v>0.02399521051156392</v>
       </c>
     </row>
     <row r="31">
@@ -10983,19 +10983,19 @@
         <v>1624787</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1555638</v>
+        <v>1553135</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1692456</v>
+        <v>1692991</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4604195303921868</v>
+        <v>0.4604195303921867</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4408244475180885</v>
+        <v>0.4401153386158037</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4795950709226115</v>
+        <v>0.4797464990625208</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1862</v>
@@ -11004,19 +11004,19 @@
         <v>1382665</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1329315</v>
+        <v>1328968</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1439253</v>
+        <v>1434716</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3705172625468561</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3562208271029224</v>
+        <v>0.3561280286946134</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3856812509649363</v>
+        <v>0.3844655668379993</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3311</v>
@@ -11025,19 +11025,19 @@
         <v>3007452</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2920961</v>
+        <v>2925887</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3092690</v>
+        <v>3092532</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.41421292991218</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.402300592392931</v>
+        <v>0.402979017694581</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4259526037842091</v>
+        <v>0.4259308221146041</v>
       </c>
     </row>
     <row r="33">
@@ -11054,19 +11054,19 @@
         <v>889974</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>834302</v>
+        <v>828573</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>950265</v>
+        <v>949537</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2521939090074616</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2364180859085269</v>
+        <v>0.2347945900671769</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2692786470427788</v>
+        <v>0.269072244391762</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1339</v>
@@ -11075,19 +11075,19 @@
         <v>939177</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>895409</v>
+        <v>892638</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>986759</v>
+        <v>986781</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2516744256647026</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2399458129453727</v>
+        <v>0.2392030230502248</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2644251543040091</v>
+        <v>0.2644309849805017</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2162</v>
@@ -11096,19 +11096,19 @@
         <v>1829151</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1755894</v>
+        <v>1759380</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1906366</v>
+        <v>1903077</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2519269128587528</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.241837255994425</v>
+        <v>0.242317377644486</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2625616105881055</v>
+        <v>0.2621086214591371</v>
       </c>
     </row>
     <row r="34">
@@ -11125,19 +11125,19 @@
         <v>641996</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>596037</v>
+        <v>597197</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>686833</v>
+        <v>692739</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1819237728856369</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1689003084259604</v>
+        <v>0.1692290507571457</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1946293996307644</v>
+        <v>0.196303015321692</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1336</v>
@@ -11146,19 +11146,19 @@
         <v>864074</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>820050</v>
+        <v>820168</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>910469</v>
+        <v>911998</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2315486952784386</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2197514210021723</v>
+        <v>0.2197830626095683</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2439814429895366</v>
+        <v>0.2443912298458941</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2041</v>
@@ -11167,19 +11167,19 @@
         <v>1506070</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1440389</v>
+        <v>1438122</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1572501</v>
+        <v>1575534</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2074292358490457</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1983830969859821</v>
+        <v>0.198070951610889</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2165787892594311</v>
+        <v>0.216996484352972</v>
       </c>
     </row>
     <row r="35">
@@ -11196,19 +11196,19 @@
         <v>197788</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>172467</v>
+        <v>173110</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>226498</v>
+        <v>227304</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.05604753561653778</v>
+        <v>0.05604753561653777</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0488723132123938</v>
+        <v>0.04905442841005547</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06418337191271803</v>
+        <v>0.06441148922420105</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>439</v>
@@ -11217,19 +11217,19 @@
         <v>290433</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>263237</v>
+        <v>262811</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>321271</v>
+        <v>319307</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0778283370491779</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07054045520079388</v>
+        <v>0.07042631889217682</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08609193828895541</v>
+        <v>0.08556569554631004</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>660</v>
@@ -11238,19 +11238,19 @@
         <v>488221</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>449755</v>
+        <v>452295</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>528689</v>
+        <v>532800</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.06724210071542738</v>
+        <v>0.0672421007154274</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06194428771327645</v>
+        <v>0.0622941142435115</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07281569004080292</v>
+        <v>0.07338187538186781</v>
       </c>
     </row>
     <row r="36">
@@ -11267,19 +11267,19 @@
         <v>110150</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>90885</v>
+        <v>88849</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>137330</v>
+        <v>135697</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03121337847955206</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02575439615407677</v>
+        <v>0.02517737986304684</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03891562347032538</v>
+        <v>0.03845273276164968</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>262</v>
@@ -11288,19 +11288,19 @@
         <v>173220</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>154738</v>
+        <v>152135</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>199052</v>
+        <v>197887</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04641822738509752</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04146562162464618</v>
+        <v>0.04076814710062079</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05334073448945041</v>
+        <v>0.05302849922312196</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>371</v>
@@ -11309,19 +11309,19 @@
         <v>283369</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>254692</v>
+        <v>253038</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>324103</v>
+        <v>319213</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0390281354993206</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03507850126060305</v>
+        <v>0.0348506033315854</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04463835400811717</v>
+        <v>0.04396479891996892</v>
       </c>
     </row>
     <row r="37">
@@ -11338,19 +11338,19 @@
         <v>64233</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>49704</v>
+        <v>50266</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>80980</v>
+        <v>82131</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01820187361862494</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01408485513490473</v>
+        <v>0.01424387107828763</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02294747918281989</v>
+        <v>0.02327360903969944</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>119</v>
@@ -11359,19 +11359,19 @@
         <v>82146</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>68249</v>
+        <v>68172</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>99217</v>
+        <v>98696</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02201305207572724</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01828880885533702</v>
+        <v>0.01826840744401173</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02658761171233717</v>
+        <v>0.02644794223740772</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>185</v>
@@ -11380,19 +11380,19 @@
         <v>146380</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>125844</v>
+        <v>125993</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>169917</v>
+        <v>169562</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.0201606851652736</v>
+        <v>0.02016068516527361</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01733228948713639</v>
+        <v>0.01735292161264793</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02340253353756117</v>
+        <v>0.02335361341211228</v>
       </c>
     </row>
     <row r="38">
